--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$481</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1426,8 +1429,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1532,54 +1535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,7 +1574,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1617,7 +1582,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,33 +1649,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1688,7 +1691,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1721,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,97 +1793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,13 +1823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,37 +1865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,15 +1882,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1932,9 +1926,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,17 +1964,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,146 +1985,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2483,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2714,8 +2717,8 @@
       <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
+      <c r="C23" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
@@ -2832,22 +2835,22 @@
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
+      <c r="C34" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>5</v>
+      <c r="C35" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2857,19 +2860,19 @@
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
+      <c r="C37" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -3139,8 +3142,8 @@
       <c r="B64" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>5</v>
+      <c r="C64" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3150,81 +3153,81 @@
       <c r="B65" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>5</v>
+      <c r="C65" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>5</v>
+      <c r="C66" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>5</v>
+      <c r="C67" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>5</v>
+      <c r="C68" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>5</v>
+      <c r="C69" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>5</v>
+      <c r="C70" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>5</v>
+      <c r="C71" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -3238,8 +3241,8 @@
       <c r="B73" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>5</v>
+      <c r="C73" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3249,8 +3252,8 @@
       <c r="B74" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>5</v>
+      <c r="C74" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3271,15 +3274,15 @@
       <c r="B76" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>5</v>
+      <c r="C76" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3466,7 +3469,7 @@
       <c r="A94" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3526,62 +3529,62 @@
       <c r="A101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
+      <c r="C101" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>5</v>
+      <c r="C102" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
+      <c r="C103" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
+      <c r="C104" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>5</v>
+      <c r="C105" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3595,8 +3598,8 @@
       <c r="B107" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>5</v>
+      <c r="C107" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3606,8 +3609,8 @@
       <c r="B108" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>5</v>
+      <c r="C108" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3617,8 +3620,8 @@
       <c r="B109" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>5</v>
+      <c r="C109" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3628,8 +3631,8 @@
       <c r="B110" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>5</v>
+      <c r="C110" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3639,8 +3642,8 @@
       <c r="B111" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>5</v>
+      <c r="C111" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3661,8 +3664,8 @@
       <c r="B113" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>5</v>
+      <c r="C113" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3683,26 +3686,26 @@
       <c r="B115" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>5</v>
+      <c r="C115" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>5</v>
+      <c r="C116" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3713,11 +3716,11 @@
       <c r="A118" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>5</v>
+      <c r="C118" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3926,18 +3929,18 @@
       <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
+      <c r="C139" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
       <c r="A140" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -4326,77 +4329,77 @@
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>5</v>
+      <c r="C177" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>5</v>
+      <c r="C178" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>5</v>
+      <c r="C179" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>5</v>
+      <c r="C180" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>5</v>
+      <c r="C181" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>5</v>
+      <c r="C182" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>5</v>
+      <c r="C183" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4406,85 +4409,85 @@
       <c r="B184" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>5</v>
+      <c r="C184" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>5</v>
+      <c r="C185" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>5</v>
+      <c r="C186" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>5</v>
+      <c r="C187" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>5</v>
+      <c r="C188" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>5</v>
+      <c r="C189" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>5</v>
+      <c r="C190" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>5</v>
+      <c r="C191" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -7555,6 +7558,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C481">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
     <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
@@ -7658,349 +7664,349 @@
     <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
     <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
     <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
+    <hyperlink ref="B119" r:id="rId101" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId102" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId103" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId104" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId105" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId106" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId107" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId108" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId109" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId110" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId111" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId107" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId112" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId113" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId114" display="Subset Sums"/>
     <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B135" r:id="rId115" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId116" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId117" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId118" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId119" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId120" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId121" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId122" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId123" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId124" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId125" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId126" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId127" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId128" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId129" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId130" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId131" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId132" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId133" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId134" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId135" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId136" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId137" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId138" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId139" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId140" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId141" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId142" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId143" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId144" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId145" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId146" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId147" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId148" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId149" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId150" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId151" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId152" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId153" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId154" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId155" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId156" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId157" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId158" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId159" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId160" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId161" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId162" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId163" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId164" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId165" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId166" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId167" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId168" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId169" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId170" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId171" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId172" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId173" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId174" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId175" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId176" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId177" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId178" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId179" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId180" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId181" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId182" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId183" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId184" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId185" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId186" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId187" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId188" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId189" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId190" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId191" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId192" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId193" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId194" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId195" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId196" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId197" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId198" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId199" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId200" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId201" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId202" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId203" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId204" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId205" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId206" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId207" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId208" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId209" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId210" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId211" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId212" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId213" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId214" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId215" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId216" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId217" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId218" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId219" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId220" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId221" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId222" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId223" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId224" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId225" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId226" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId227" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId228" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId229" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId230" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId231" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId232" display="Smallest subset with sum greater than all other elements"/>
     <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B262" r:id="rId233" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId234" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId235" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId236" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId237" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId238" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId239" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId240" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId241" display="Find smallest number with given number of digits and sum of digits"/>
     <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B272" r:id="rId242" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId243" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId244" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId245" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId246" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId247" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId248" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId249" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId250" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId251" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId252" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId253" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId254" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId255" display="Find Maximum number possible by doing at-most K swaps"/>
     <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B289" r:id="rId256" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId257" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId258" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId259" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId260" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId261" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId262" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId263" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId264" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId265" display="Implement &quot;N&quot; stacks in an Array"/>
     <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="B302" r:id="rId266" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId267" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId268" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId269" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId270" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId271" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId272" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId273" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId274" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId275" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId276" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId277" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId278" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId279" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId280" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId281" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId282" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId283" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId284" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId285" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId286" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId287" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId288" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId289" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId290" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId291" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId292" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId293" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId294" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId295" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId152" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId296" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId297" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId298" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId299" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId300" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId301" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId302" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId303" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId304" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId305" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId147" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId306" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId307" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId308" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId240" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId309" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId310" display="Convert min heap to max heap"/>
     <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B353" r:id="rId311" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId312" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId313" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId314" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId315" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId243" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId316" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId317" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId318" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId319" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId320" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId321" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId322" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId323" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId324" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId325" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId326" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId327" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId328" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId329" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId330" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId331" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId332" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId333" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId334" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId335" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId336" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId337" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId338" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId339" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId340" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId341" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId342" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId343" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId343" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId256" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId248" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId344" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId345" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId346" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId347" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId348" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId220" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId349" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId350" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId351" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId352" display="Word Break Problem | (Trie solution)"/>
     <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B406" r:id="rId353" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId354" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId355" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId356" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId357" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId358" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId359" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId360" display="Matrix Chain Multiplication "/>
     <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B417" r:id="rId250" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId361" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId362" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId363" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId364" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId365" display="Maximize The Cut Segments"/>
     <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
     <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B425" r:id="rId366" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId367" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId368" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId369" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId370" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId371" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId372" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId373" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId374" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId375" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId376" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId377" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId378" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId380" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId381" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId382" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId383" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId384" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B439" r:id="rId379" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId380" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId381" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId382" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId383" display="Count Balanced Binary Trees of Height h"/>
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId385" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId386" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B445" r:id="rId384" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
     <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId387" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="B448" r:id="rId386" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId250" display="Partition problem"/>
     <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId388" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId389" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId390" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId391" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId392" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId393" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B450" r:id="rId387" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId388" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId389" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId390" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId391" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
     <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId394" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId395" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId396" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B458" r:id="rId393" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId394" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId395" display="Palindrome PartitioningProblem"/>
     <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId397" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId398" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId399" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId400" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId401" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId402" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId403" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId404" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId405" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId406" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId407" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId408" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId409" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId410" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId411" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId412" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId413" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId414" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId415" display="Create a Graph, print it"/>
-    <hyperlink ref="B56" r:id="rId416" display="Reverse a String"/>
+    <hyperlink ref="B462" r:id="rId396" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId397" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId398" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId399" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId400" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId401" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId403" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId404" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId405" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId406" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId407" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId408" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId409" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId410" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId411" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId412" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId413" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId414" display="Create a Graph, print it"/>
+    <hyperlink ref="B56" r:id="rId415" display="Reverse a String"/>
+    <hyperlink ref="B118" r:id="rId416" display="minimum no. of swaps required to sort the array"/>
     <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -1428,10 +1428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1524,12 +1524,111 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,22 +1643,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,94 +1657,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1691,19 +1691,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,31 +1739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,19 +1769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,25 +1805,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,19 +1835,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,37 +1865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,30 +1882,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1920,26 +1896,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,6 +1924,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1982,149 +1962,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2486,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -4494,18 +4494,18 @@
       <c r="A192" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>5</v>
+      <c r="C192" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4724,29 +4724,29 @@
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
+      <c r="C214" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>5</v>
+      <c r="C215" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4757,7 +4757,7 @@
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C217" s="5" t="s">

--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,13 +1427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1520,151 +1514,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1689,194 +1540,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1884,256 +1549,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2144,11 +1570,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2162,61 +1588,18 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2478,36 +1861,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="2:2">
+    <row r="1" spans="1:3" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21" spans="1:3">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2518,12 +1901,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:3">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +1928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="1:3">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="21" spans="1:3">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:3">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:3">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2589,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:3">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2600,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:3">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="21" spans="1:3">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2622,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="21" spans="1:3">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:3">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2655,7 +2038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" ht="21" spans="1:3">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="21" spans="1:3">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +2071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="21" spans="1:3">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2699,7 +2082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:3">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2710,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="21" spans="1:3">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:3">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +2115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="21" spans="1:3">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:3">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="21" spans="1:3">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="21" spans="1:3">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:3">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" ht="21" spans="1:3">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:3">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2809,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="21" spans="1:3">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:3">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2831,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="21" spans="1:3">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" ht="21" spans="1:3">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +2236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:3">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2864,7 +2247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="21" spans="1:3">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="21" spans="1:3">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="21" spans="1:3">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="21" spans="1:3">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="21" spans="1:3">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2919,20 +2302,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="21" spans="2:3">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="12"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="21" spans="1:3">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:3">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="13" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="21" spans="1:3">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" ht="21" spans="1:3">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="13" t="s">
         <v>46</v>
       </c>
@@ -2965,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="21" spans="1:3">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -2976,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="21" spans="1:3">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="13" t="s">
         <v>46</v>
       </c>
@@ -2987,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="21" spans="1:3">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="13" t="s">
         <v>46</v>
       </c>
@@ -2998,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="21" spans="1:3">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -3009,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="21" spans="1:3">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
@@ -3020,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="21" spans="1:3">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="13" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="21" spans="1:3">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="13" t="s">
         <v>46</v>
       </c>
@@ -3042,12 +2425,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="21" spans="1:3">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="12"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="21" spans="1:3">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -3058,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" ht="21" spans="1:3">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -3069,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" ht="21" spans="1:3">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -3080,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="21" spans="1:3">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -3091,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" ht="21" spans="1:3">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -3102,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" ht="21" spans="1:3">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -3113,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="21" spans="1:3">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -3124,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" ht="21" spans="1:3">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
@@ -3135,7 +2518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="21" spans="1:3">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
@@ -3146,7 +2529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" ht="21" spans="1:3">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>57</v>
       </c>
@@ -3157,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" ht="21" spans="1:3">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" ht="21" spans="1:3">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
@@ -3179,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" ht="21" spans="1:3">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -3190,7 +2573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" ht="21" spans="1:3">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
@@ -3201,7 +2584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" ht="21" spans="1:3">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>57</v>
       </c>
@@ -3212,7 +2595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" ht="21" spans="1:3">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -3223,7 +2606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" ht="21" spans="1:3">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>57</v>
       </c>
@@ -3234,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="21" spans="1:3">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>57</v>
       </c>
@@ -3245,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" ht="21" spans="1:3">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>57</v>
       </c>
@@ -3256,7 +2639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" ht="21" spans="1:3">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -3267,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="21" spans="1:3">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>57</v>
       </c>
@@ -3278,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" ht="21" spans="1:3">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>57</v>
       </c>
@@ -3289,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="21" spans="1:3">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>57</v>
       </c>
@@ -3300,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="21" spans="1:3">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>57</v>
       </c>
@@ -3311,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="21" spans="1:3">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>57</v>
       </c>
@@ -3322,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="21" spans="1:3">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
@@ -3333,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="21" spans="1:3">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>57</v>
       </c>
@@ -3344,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="21" spans="1:3">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +2738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="21" spans="1:3">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>57</v>
       </c>
@@ -3366,7 +2749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="21" spans="1:3">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>57</v>
       </c>
@@ -3377,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:3">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>57</v>
       </c>
@@ -3388,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="21" spans="1:3">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>57</v>
       </c>
@@ -3399,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="21" spans="1:3">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +2793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="21" spans="1:3">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>57</v>
       </c>
@@ -3421,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="21" spans="1:3">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>57</v>
       </c>
@@ -3432,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="21" spans="1:3">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -3443,7 +2826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="21" spans="1:3">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -3454,7 +2837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="21" spans="1:3">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>57</v>
       </c>
@@ -3465,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="21" spans="1:3">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>57</v>
       </c>
@@ -3476,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="21" spans="1:3">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>57</v>
       </c>
@@ -3487,7 +2870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="21" spans="1:3">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>57</v>
       </c>
@@ -3498,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="21" spans="1:3">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>57</v>
       </c>
@@ -3509,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="21" spans="1:3">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -3520,12 +2903,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="21" spans="1:3">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" ht="21" spans="1:3">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +2919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" ht="21" spans="1:3">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
@@ -3547,7 +2930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" ht="21" spans="1:3">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -3558,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" ht="21" spans="1:3">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>101</v>
       </c>
@@ -3569,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" ht="21" spans="1:3">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>101</v>
       </c>
@@ -3580,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" ht="21" spans="1:3">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>101</v>
       </c>
@@ -3591,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="21" spans="1:3">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>101</v>
       </c>
@@ -3602,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" ht="21" spans="1:3">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>101</v>
       </c>
@@ -3613,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" ht="21" spans="1:3">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>101</v>
       </c>
@@ -3624,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" ht="21" spans="1:3">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>101</v>
       </c>
@@ -3635,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" ht="21" spans="1:3">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>101</v>
       </c>
@@ -3646,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" ht="21" spans="1:3">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>101</v>
       </c>
@@ -3657,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="21" spans="1:3">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>101</v>
       </c>
@@ -3668,7 +3051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" ht="21" spans="1:3">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>101</v>
       </c>
@@ -3679,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="21" spans="1:3">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>101</v>
       </c>
@@ -3690,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" ht="21" spans="1:3">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>101</v>
       </c>
@@ -3701,7 +3084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" ht="21" spans="1:3">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>101</v>
       </c>
@@ -3712,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="21" spans="1:3">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>101</v>
       </c>
@@ -3723,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" ht="21" spans="1:3">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>101</v>
       </c>
@@ -3734,7 +3117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="21" spans="1:3">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>101</v>
       </c>
@@ -3745,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="21" spans="1:3">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>101</v>
       </c>
@@ -3756,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="21" spans="1:3">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>101</v>
       </c>
@@ -3767,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" ht="21" spans="1:3">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>101</v>
       </c>
@@ -3778,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="21" spans="1:3">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
@@ -3789,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -3800,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="21" spans="1:3">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -3811,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="21" spans="1:3">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -3822,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="21" spans="1:3">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -3833,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="21" spans="1:3">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -3844,7 +3227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="21" spans="1:3">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -3855,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="21" spans="1:3">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -3866,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="21" spans="1:3">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -3877,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" ht="21" spans="1:3">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -3888,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="21" spans="1:3">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -3899,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="21" spans="1:3">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -3910,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="21" spans="1:3">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -3921,11 +3304,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" ht="21" spans="2:3">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="12"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
@@ -3936,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" ht="21" spans="1:3">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="13" t="s">
         <v>138</v>
       </c>
@@ -3947,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="21" spans="1:3">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="13" t="s">
         <v>138</v>
       </c>
@@ -3958,7 +3341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="21" spans="1:3">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="13" t="s">
         <v>138</v>
       </c>
@@ -3969,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="21" spans="1:3">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="13" t="s">
         <v>138</v>
       </c>
@@ -3980,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="21" spans="1:3">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="13" t="s">
         <v>138</v>
       </c>
@@ -3991,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="21" spans="1:3">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="13" t="s">
         <v>138</v>
       </c>
@@ -4002,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="21" spans="1:3">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="13" t="s">
         <v>138</v>
       </c>
@@ -4013,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="21" spans="1:3">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="13" t="s">
         <v>138</v>
       </c>
@@ -4024,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" ht="21" spans="1:3">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="13" t="s">
         <v>138</v>
       </c>
@@ -4035,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="21" spans="1:3">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="13" t="s">
         <v>138</v>
       </c>
@@ -4046,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="21" spans="1:3">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="13" t="s">
         <v>138</v>
       </c>
@@ -4057,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="21" spans="1:3">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="13" t="s">
         <v>138</v>
       </c>
@@ -4068,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="21" spans="1:3">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="13" t="s">
         <v>138</v>
       </c>
@@ -4079,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="21" spans="1:3">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="13" t="s">
         <v>138</v>
       </c>
@@ -4090,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" ht="21" spans="1:3">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="13" t="s">
         <v>138</v>
       </c>
@@ -4101,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="21" spans="1:3">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="13" t="s">
         <v>138</v>
       </c>
@@ -4112,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="21" spans="1:3">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="13" t="s">
         <v>138</v>
       </c>
@@ -4123,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="21" spans="1:3">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="13" t="s">
         <v>138</v>
       </c>
@@ -4134,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="21" spans="1:3">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="13" t="s">
         <v>138</v>
       </c>
@@ -4145,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="21" spans="1:3">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="13" t="s">
         <v>138</v>
       </c>
@@ -4156,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="21" spans="1:3">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="13" t="s">
         <v>138</v>
       </c>
@@ -4167,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="21" spans="1:3">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="13" t="s">
         <v>138</v>
       </c>
@@ -4178,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="21" spans="1:3">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="13" t="s">
         <v>138</v>
       </c>
@@ -4189,7 +3572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="13" t="s">
         <v>138</v>
       </c>
@@ -4200,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="21" spans="1:3">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="13" t="s">
         <v>138</v>
       </c>
@@ -4211,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="21" spans="1:3">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="13" t="s">
         <v>138</v>
       </c>
@@ -4222,7 +3605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="21" spans="1:3">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="13" t="s">
         <v>138</v>
       </c>
@@ -4233,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="21" spans="1:3">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="13" t="s">
         <v>138</v>
       </c>
@@ -4244,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="21" spans="1:3">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="13" t="s">
         <v>138</v>
       </c>
@@ -4255,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="21" spans="1:3">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="13" t="s">
         <v>138</v>
       </c>
@@ -4266,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="21" spans="1:3">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="13" t="s">
         <v>138</v>
       </c>
@@ -4277,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="21" spans="1:3">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="13" t="s">
         <v>138</v>
       </c>
@@ -4288,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="21" spans="1:3">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="13" t="s">
         <v>138</v>
       </c>
@@ -4299,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="21" spans="1:3">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="13" t="s">
         <v>138</v>
       </c>
@@ -4310,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="21" spans="1:3">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="13" t="s">
         <v>138</v>
       </c>
@@ -4321,11 +3704,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" ht="21" spans="2:3">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="12"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" ht="21" spans="1:3">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -4336,7 +3719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:3">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>175</v>
       </c>
@@ -4347,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:3">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>175</v>
       </c>
@@ -4358,7 +3741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" ht="21" spans="1:3">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>175</v>
       </c>
@@ -4369,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" ht="21" spans="1:3">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>175</v>
       </c>
@@ -4380,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" ht="21" spans="1:3">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>175</v>
       </c>
@@ -4391,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" ht="21" spans="1:3">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>175</v>
       </c>
@@ -4402,7 +3785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" ht="21" spans="1:3">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" ht="21" spans="1:3">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>175</v>
       </c>
@@ -4424,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" ht="21" spans="1:3">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>175</v>
       </c>
@@ -4435,7 +3818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" ht="21" spans="1:3">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>175</v>
       </c>
@@ -4446,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" ht="21" spans="1:3">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>175</v>
       </c>
@@ -4457,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" ht="21" spans="1:3">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>175</v>
       </c>
@@ -4468,7 +3851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" ht="21" spans="1:3">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>175</v>
       </c>
@@ -4479,7 +3862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" ht="21" spans="1:3">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>175</v>
       </c>
@@ -4490,7 +3873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" ht="21" spans="1:3">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>175</v>
       </c>
@@ -4501,7 +3884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" ht="21" spans="1:3">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>175</v>
       </c>
@@ -4512,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="21" spans="1:3">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>175</v>
       </c>
@@ -4523,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" ht="21" spans="1:3">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>175</v>
       </c>
@@ -4534,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="21" spans="1:3">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>175</v>
       </c>
@@ -4545,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="21" spans="1:3">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>175</v>
       </c>
@@ -4556,7 +3939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="21" spans="1:3">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>175</v>
       </c>
@@ -4567,7 +3950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="21" spans="1:3">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>175</v>
       </c>
@@ -4578,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="21" spans="1:3">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>175</v>
       </c>
@@ -4589,7 +3972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="21" spans="1:3">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>175</v>
       </c>
@@ -4600,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="21" spans="1:3">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>175</v>
       </c>
@@ -4611,7 +3994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="21" spans="1:3">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>175</v>
       </c>
@@ -4622,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="21" spans="1:3">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>175</v>
       </c>
@@ -4633,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="21" spans="1:3">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>175</v>
       </c>
@@ -4644,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="21" spans="1:3">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>175</v>
       </c>
@@ -4655,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="21" spans="1:3">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>175</v>
       </c>
@@ -4666,7 +4049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="21" spans="1:3">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>175</v>
       </c>
@@ -4677,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="21" spans="1:3">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>175</v>
       </c>
@@ -4688,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="21" spans="1:3">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>175</v>
       </c>
@@ -4699,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" ht="21" spans="1:3">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>175</v>
       </c>
@@ -4710,17 +4093,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="21" spans="1:3">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="13"/>
       <c r="B212" s="12"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" ht="21" spans="1:3">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="13"/>
       <c r="B213" s="12"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -4731,7 +4114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" ht="21" spans="1:3">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
@@ -4742,18 +4125,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" ht="21" spans="1:3">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" ht="21" spans="1:3">
+      <c r="C216" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -4764,40 +4147,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="21" spans="1:3">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" ht="21" spans="1:3">
+      <c r="C218" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" ht="21" spans="1:3">
+      <c r="C219" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" ht="21" spans="1:3">
+      <c r="C220" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -4808,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" ht="21" spans="1:3">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -4819,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="21" spans="1:3">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -4830,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="21" spans="1:3">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
@@ -4841,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="21" spans="1:3">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -4852,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="21" spans="1:3">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -4863,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" ht="21" spans="1:3">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
@@ -4874,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="21" spans="1:3">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
@@ -4885,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="21" spans="1:3">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
@@ -4896,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="21" spans="1:3">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
@@ -4907,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="21" spans="1:3">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>211</v>
       </c>
@@ -4918,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="21" spans="1:3">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>211</v>
       </c>
@@ -4929,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="21" spans="1:3">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
@@ -4940,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="21" spans="1:3">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
@@ -4951,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="21" spans="1:3">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
@@ -4962,15 +4345,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="21" spans="2:3">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="12"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" ht="21" spans="2:3">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="12"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" ht="21" spans="1:3">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>234</v>
       </c>
@@ -4981,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="21" spans="1:3">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>234</v>
       </c>
@@ -4992,7 +4375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="21" spans="1:3">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>234</v>
       </c>
@@ -5003,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="21" spans="1:3">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>234</v>
       </c>
@@ -5014,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="21" spans="1:3">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>234</v>
       </c>
@@ -5025,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" ht="21" spans="1:3">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>234</v>
       </c>
@@ -5036,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="21" spans="1:3">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>234</v>
       </c>
@@ -5047,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="21" spans="1:3">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>234</v>
       </c>
@@ -5058,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" ht="21" spans="1:3">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>234</v>
       </c>
@@ -5069,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="21" spans="1:3">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>234</v>
       </c>
@@ -5080,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="21" spans="1:3">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>234</v>
       </c>
@@ -5091,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" ht="21" spans="1:3">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>234</v>
       </c>
@@ -5102,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" ht="21" spans="1:3">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>234</v>
       </c>
@@ -5113,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="21" spans="1:3">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>234</v>
       </c>
@@ -5124,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="21" spans="1:3">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>234</v>
       </c>
@@ -5135,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" ht="21" spans="1:3">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>234</v>
       </c>
@@ -5146,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="21" spans="1:3">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>234</v>
       </c>
@@ -5157,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="21" spans="1:3">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>234</v>
       </c>
@@ -5168,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="21" spans="1:3">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>234</v>
       </c>
@@ -5179,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="21" spans="1:3">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>234</v>
       </c>
@@ -5190,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="21" spans="1:3">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>234</v>
       </c>
@@ -5201,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="21" spans="1:3">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>234</v>
       </c>
@@ -5212,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="21" spans="1:3">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>234</v>
       </c>
@@ -5223,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="21" spans="1:3">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>234</v>
       </c>
@@ -5234,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="21" spans="1:3">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>234</v>
       </c>
@@ -5245,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" ht="21" spans="1:3">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>234</v>
       </c>
@@ -5256,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" ht="21" spans="1:3">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>234</v>
       </c>
@@ -5267,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="21" spans="1:3">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>234</v>
       </c>
@@ -5278,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="21" spans="1:3">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>234</v>
       </c>
@@ -5289,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="21" spans="1:3">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>234</v>
       </c>
@@ -5300,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" ht="21" spans="1:3">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>234</v>
       </c>
@@ -5311,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="21" spans="1:3">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>234</v>
       </c>
@@ -5322,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="21" spans="1:3">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>234</v>
       </c>
@@ -5333,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="21" spans="1:3">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>234</v>
       </c>
@@ -5344,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="21" spans="1:3">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>234</v>
       </c>
@@ -5355,15 +4738,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="21" spans="2:3">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="12"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" ht="21" spans="2:3">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="12"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" ht="21" spans="1:3">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>269</v>
       </c>
@@ -5374,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="21" spans="1:3">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>269</v>
       </c>
@@ -5385,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="21" spans="1:3">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>269</v>
       </c>
@@ -5396,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" ht="21" spans="1:3">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>269</v>
       </c>
@@ -5407,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" ht="21" spans="1:3">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>269</v>
       </c>
@@ -5418,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="21" spans="1:3">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>269</v>
       </c>
@@ -5429,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="21" spans="1:3">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>269</v>
       </c>
@@ -5440,7 +4823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="21" spans="1:3">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>269</v>
       </c>
@@ -5451,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="21" spans="1:3">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>269</v>
       </c>
@@ -5462,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="21" spans="1:3">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>269</v>
       </c>
@@ -5473,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="21" spans="1:3">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>269</v>
       </c>
@@ -5484,7 +4867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="21" spans="1:3">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>269</v>
       </c>
@@ -5495,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="21" spans="1:3">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>269</v>
       </c>
@@ -5506,7 +4889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="21" spans="1:3">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>269</v>
       </c>
@@ -5517,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="21" spans="1:3">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>269</v>
       </c>
@@ -5528,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="21" spans="1:3">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>269</v>
       </c>
@@ -5539,7 +4922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="21" spans="1:3">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>269</v>
       </c>
@@ -5550,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="21" spans="1:3">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>269</v>
       </c>
@@ -5561,7 +4944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="21" spans="1:3">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>269</v>
       </c>
@@ -5572,15 +4955,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="21" spans="2:3">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="12"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" ht="21" spans="2:3">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="12"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>289</v>
       </c>
@@ -5591,7 +4974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" ht="21" spans="1:3">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>289</v>
       </c>
@@ -5602,7 +4985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="21" spans="1:3">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>289</v>
       </c>
@@ -5613,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="21" spans="1:3">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>289</v>
       </c>
@@ -5624,7 +5007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="21" spans="1:3">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>289</v>
       </c>
@@ -5635,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="21" spans="1:3">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>289</v>
       </c>
@@ -5646,7 +5029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="21" spans="1:3">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>289</v>
       </c>
@@ -5657,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="21" spans="1:3">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>289</v>
       </c>
@@ -5668,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="21" spans="1:3">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>289</v>
       </c>
@@ -5679,7 +5062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="21" spans="1:3">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>289</v>
       </c>
@@ -5690,7 +5073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="21" spans="1:3">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>289</v>
       </c>
@@ -5701,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="21" spans="1:3">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>289</v>
       </c>
@@ -5712,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" ht="21" spans="1:3">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>289</v>
       </c>
@@ -5723,18 +5106,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="21" spans="1:3">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="16" t="s">
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="21" spans="1:3">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>289</v>
       </c>
@@ -5745,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="21" spans="1:3">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>289</v>
       </c>
@@ -5756,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="21" spans="1:3">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>289</v>
       </c>
@@ -5767,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="21" spans="1:3">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>289</v>
       </c>
@@ -5778,7 +5161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="21" spans="1:3">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>289</v>
       </c>
@@ -5789,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="21" spans="1:3">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>289</v>
       </c>
@@ -5800,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="21" spans="1:3">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>289</v>
       </c>
@@ -5811,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="21" spans="1:3">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>289</v>
       </c>
@@ -5822,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" ht="21" spans="1:3">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>289</v>
       </c>
@@ -5833,7 +5216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="21" spans="1:3">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>289</v>
       </c>
@@ -5844,7 +5227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="21" spans="1:3">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>289</v>
       </c>
@@ -5855,7 +5238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="21" spans="1:3">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>289</v>
       </c>
@@ -5866,7 +5249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="21" spans="1:3">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>289</v>
       </c>
@@ -5877,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="21" spans="1:3">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>289</v>
       </c>
@@ -5888,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="21" spans="1:3">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>289</v>
       </c>
@@ -5899,7 +5282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="21" spans="1:3">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>289</v>
       </c>
@@ -5910,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" ht="21" spans="1:3">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>289</v>
       </c>
@@ -5921,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" ht="21" spans="1:3">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>289</v>
       </c>
@@ -5932,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="21" spans="1:3">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>289</v>
       </c>
@@ -5943,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="21" spans="1:3">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>289</v>
       </c>
@@ -5954,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="21" spans="1:3">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>289</v>
       </c>
@@ -5965,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="21" spans="1:3">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>289</v>
       </c>
@@ -5976,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" ht="21" spans="1:3">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>289</v>
       </c>
@@ -5987,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="21" spans="1:3">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>289</v>
       </c>
@@ -5998,15 +5381,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="21" spans="2:3">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="12"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" ht="21" spans="2:3">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="12"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" ht="21" spans="1:3">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="13" t="s">
         <v>328</v>
       </c>
@@ -6017,7 +5400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="21" spans="1:3">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="13" t="s">
         <v>328</v>
       </c>
@@ -6028,7 +5411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="21" spans="1:3">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="13" t="s">
         <v>328</v>
       </c>
@@ -6039,7 +5422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="21" spans="1:3">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="13" t="s">
         <v>328</v>
       </c>
@@ -6050,7 +5433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" ht="21" spans="1:3">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="13" t="s">
         <v>328</v>
       </c>
@@ -6061,7 +5444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" ht="21" spans="1:3">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="13" t="s">
         <v>328</v>
       </c>
@@ -6072,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="21" spans="1:3">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="13" t="s">
         <v>328</v>
       </c>
@@ -6083,7 +5466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="21" spans="1:3">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="13" t="s">
         <v>328</v>
       </c>
@@ -6094,18 +5477,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" ht="21" spans="1:3">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="16" t="s">
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" ht="21" spans="1:3">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="13" t="s">
         <v>328</v>
       </c>
@@ -6116,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" ht="21" spans="1:3">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="13" t="s">
         <v>328</v>
       </c>
@@ -6127,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="21" spans="1:3">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="13" t="s">
         <v>328</v>
       </c>
@@ -6138,7 +5521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" ht="21" spans="1:3">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="13" t="s">
         <v>328</v>
       </c>
@@ -6149,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="21" spans="1:3">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="13" t="s">
         <v>328</v>
       </c>
@@ -6160,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" ht="21" spans="1:3">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="13" t="s">
         <v>328</v>
       </c>
@@ -6171,7 +5554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="21" spans="1:3">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="13" t="s">
         <v>328</v>
       </c>
@@ -6182,7 +5565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="21" spans="1:3">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="13" t="s">
         <v>328</v>
       </c>
@@ -6193,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="21" spans="1:3">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="13" t="s">
         <v>328</v>
       </c>
@@ -6204,15 +5587,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="21" spans="2:3">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="12"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" ht="21" spans="2:3">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="12"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" ht="21" spans="1:3">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="13" t="s">
         <v>347</v>
       </c>
@@ -6223,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" ht="21" spans="1:3">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="13" t="s">
         <v>347</v>
       </c>
@@ -6234,7 +5617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="21" spans="1:3">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="13" t="s">
         <v>347</v>
       </c>
@@ -6245,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="21" spans="1:3">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="13" t="s">
         <v>347</v>
       </c>
@@ -6256,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" ht="21" spans="1:3">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="13" t="s">
         <v>347</v>
       </c>
@@ -6267,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="21" spans="1:3">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="13" t="s">
         <v>347</v>
       </c>
@@ -6278,7 +5661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="21" spans="1:3">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="13" t="s">
         <v>347</v>
       </c>
@@ -6289,7 +5672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" ht="21" spans="1:3">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="13" t="s">
         <v>347</v>
       </c>
@@ -6300,7 +5683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="21" spans="1:3">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="13" t="s">
         <v>347</v>
       </c>
@@ -6311,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="21" spans="1:3">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="13" t="s">
         <v>347</v>
       </c>
@@ -6322,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="21" spans="1:3">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="13" t="s">
         <v>347</v>
       </c>
@@ -6333,7 +5716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="21" spans="1:3">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="13" t="s">
         <v>347</v>
       </c>
@@ -6344,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="21" spans="1:3">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="13" t="s">
         <v>347</v>
       </c>
@@ -6355,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" ht="21" spans="1:3">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="13" t="s">
         <v>347</v>
       </c>
@@ -6366,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" ht="21" spans="1:3">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="13" t="s">
         <v>347</v>
       </c>
@@ -6377,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="21" spans="1:3">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="13" t="s">
         <v>347</v>
       </c>
@@ -6388,7 +5771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="21" spans="1:3">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="13" t="s">
         <v>347</v>
       </c>
@@ -6399,7 +5782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="21" spans="1:3">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="13" t="s">
         <v>347</v>
       </c>
@@ -6410,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="21" spans="1:3">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="13" t="s">
         <v>347</v>
       </c>
@@ -6421,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="21" spans="1:3">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="13" t="s">
         <v>347</v>
       </c>
@@ -6432,7 +5815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="21" spans="1:3">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="13" t="s">
         <v>347</v>
       </c>
@@ -6443,7 +5826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="21" spans="1:3">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="13" t="s">
         <v>347</v>
       </c>
@@ -6454,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" ht="21" spans="1:3">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="13" t="s">
         <v>347</v>
       </c>
@@ -6465,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="21" spans="1:3">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="13" t="s">
         <v>347</v>
       </c>
@@ -6476,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="21" spans="1:3">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="13" t="s">
         <v>347</v>
       </c>
@@ -6487,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="21" spans="1:3">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="13" t="s">
         <v>347</v>
       </c>
@@ -6498,7 +5881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" ht="21" spans="1:3">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="13" t="s">
         <v>347</v>
       </c>
@@ -6509,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" ht="21" spans="1:3">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="13" t="s">
         <v>347</v>
       </c>
@@ -6520,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" ht="21" spans="1:3">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="13" t="s">
         <v>347</v>
       </c>
@@ -6531,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="21" spans="1:3">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="13" t="s">
         <v>347</v>
       </c>
@@ -6542,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="21" spans="1:3">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="13" t="s">
         <v>347</v>
       </c>
@@ -6553,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="21" spans="1:3">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="13" t="s">
         <v>347</v>
       </c>
@@ -6564,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="21" spans="1:3">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="13" t="s">
         <v>347</v>
       </c>
@@ -6575,7 +5958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="21" spans="1:3">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="13" t="s">
         <v>347</v>
       </c>
@@ -6586,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="21" spans="1:3">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="13" t="s">
         <v>347</v>
       </c>
@@ -6597,7 +5980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="21" spans="1:3">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="13" t="s">
         <v>347</v>
       </c>
@@ -6608,7 +5991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="21" spans="1:3">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="13" t="s">
         <v>347</v>
       </c>
@@ -6619,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="21" spans="1:3">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="13" t="s">
         <v>347</v>
       </c>
@@ -6630,7 +6013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="21" spans="1:3">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="13" t="s">
         <v>347</v>
       </c>
@@ -6641,7 +6024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="21" spans="1:3">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="13" t="s">
         <v>347</v>
       </c>
@@ -6652,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="21" spans="1:3">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="13" t="s">
         <v>347</v>
       </c>
@@ -6663,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="21" spans="1:3">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="13" t="s">
         <v>347</v>
       </c>
@@ -6674,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="21" spans="1:3">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="13" t="s">
         <v>347</v>
       </c>
@@ -6685,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="21" spans="1:3">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="13" t="s">
         <v>347</v>
       </c>
@@ -6696,15 +6079,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="21" spans="2:3">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="12"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" ht="21" spans="2:3">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="12"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" ht="21" spans="1:3">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="13" t="s">
         <v>391</v>
       </c>
@@ -6715,7 +6098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="21" spans="1:3">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="13" t="s">
         <v>391</v>
       </c>
@@ -6726,7 +6109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="21" spans="1:3">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="13" t="s">
         <v>391</v>
       </c>
@@ -6737,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="21" spans="1:3">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="13" t="s">
         <v>391</v>
       </c>
@@ -6748,7 +6131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" ht="21" spans="1:3">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="13" t="s">
         <v>391</v>
       </c>
@@ -6759,7 +6142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="21" spans="1:3">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="13" t="s">
         <v>391</v>
       </c>
@@ -6770,15 +6153,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" ht="21" spans="2:3">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="12"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" ht="21" spans="2:3">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="12"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" ht="21" spans="1:3">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>397</v>
       </c>
@@ -6789,7 +6172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="21" spans="1:3">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>397</v>
       </c>
@@ -6800,7 +6183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" ht="21" spans="1:3">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>397</v>
       </c>
@@ -6811,7 +6194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" ht="21" spans="1:3">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>397</v>
       </c>
@@ -6822,7 +6205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" ht="21" spans="1:3">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>397</v>
       </c>
@@ -6833,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="21" spans="1:3">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>397</v>
       </c>
@@ -6844,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="21" spans="1:3">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>397</v>
       </c>
@@ -6855,7 +6238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" ht="21" spans="1:3">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>397</v>
       </c>
@@ -6866,7 +6249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="21" spans="1:3">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>397</v>
       </c>
@@ -6877,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="21" spans="1:3">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>397</v>
       </c>
@@ -6888,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="21" spans="1:3">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>397</v>
       </c>
@@ -6899,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="21" spans="1:3">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>397</v>
       </c>
@@ -6910,7 +6293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" ht="21" spans="1:3">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>397</v>
       </c>
@@ -6921,7 +6304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="21" spans="1:3">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>397</v>
       </c>
@@ -6932,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="21" spans="1:3">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>397</v>
       </c>
@@ -6943,7 +6326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="21" spans="1:3">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>397</v>
       </c>
@@ -6954,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="21" spans="1:3">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>397</v>
       </c>
@@ -6965,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" ht="21" spans="1:3">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>397</v>
       </c>
@@ -6976,7 +6359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="21" spans="1:3">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>397</v>
       </c>
@@ -6987,7 +6370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" ht="21" spans="1:3">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>397</v>
       </c>
@@ -6998,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="21" spans="1:3">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>397</v>
       </c>
@@ -7009,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" ht="21" spans="1:3">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>397</v>
       </c>
@@ -7020,7 +6403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" ht="21" spans="1:3">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>397</v>
       </c>
@@ -7031,7 +6414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="21" spans="1:3">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>397</v>
       </c>
@@ -7042,7 +6425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" ht="21" spans="1:3">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>397</v>
       </c>
@@ -7053,7 +6436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="21" spans="1:3">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>397</v>
       </c>
@@ -7064,7 +6447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="21" spans="1:3">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>397</v>
       </c>
@@ -7075,7 +6458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="21" spans="1:3">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>397</v>
       </c>
@@ -7086,7 +6469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" ht="21" spans="1:3">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>397</v>
       </c>
@@ -7097,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" ht="21" spans="1:3">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>397</v>
       </c>
@@ -7108,7 +6491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="21" spans="1:3">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>397</v>
       </c>
@@ -7119,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="21" spans="1:3">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>397</v>
       </c>
@@ -7130,7 +6513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" ht="21" spans="1:3">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>397</v>
       </c>
@@ -7141,7 +6524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="21" spans="1:3">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>397</v>
       </c>
@@ -7152,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" ht="21" spans="1:3">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>397</v>
       </c>
@@ -7163,7 +6546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="21" spans="1:3">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>397</v>
       </c>
@@ -7174,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="21" spans="1:3">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>397</v>
       </c>
@@ -7185,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="21" spans="1:3">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>397</v>
       </c>
@@ -7196,7 +6579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="21" spans="1:3">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>397</v>
       </c>
@@ -7207,7 +6590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="21" spans="1:3">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>397</v>
       </c>
@@ -7218,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="21" spans="1:3">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>397</v>
       </c>
@@ -7229,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="21" spans="1:3">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>397</v>
       </c>
@@ -7240,7 +6623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" ht="21" spans="1:3">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>397</v>
       </c>
@@ -7251,7 +6634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="21" spans="1:3">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>397</v>
       </c>
@@ -7262,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="21" spans="1:3">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>397</v>
       </c>
@@ -7273,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="21" spans="1:3">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>397</v>
       </c>
@@ -7284,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="21" spans="1:3">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>397</v>
       </c>
@@ -7295,7 +6678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="21" spans="1:3">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>397</v>
       </c>
@@ -7306,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="21" spans="1:3">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>397</v>
       </c>
@@ -7317,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="21" spans="1:3">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>397</v>
       </c>
@@ -7328,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="21" spans="1:3">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>397</v>
       </c>
@@ -7339,7 +6722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="21" spans="1:3">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>397</v>
       </c>
@@ -7350,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="21" spans="1:3">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>397</v>
       </c>
@@ -7361,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="21" spans="1:3">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>397</v>
       </c>
@@ -7372,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="21" spans="1:3">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>397</v>
       </c>
@@ -7383,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="21" spans="1:3">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>397</v>
       </c>
@@ -7394,7 +6777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="21" spans="1:3">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>397</v>
       </c>
@@ -7405,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="21" spans="1:3">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>397</v>
       </c>
@@ -7416,7 +6799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="21" spans="1:3">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>397</v>
       </c>
@@ -7427,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="21" spans="1:3">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>397</v>
       </c>
@@ -7438,16 +6821,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="21" spans="2:3">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="12"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" ht="21" spans="1:3">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="13"/>
       <c r="B471" s="12"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" ht="21" spans="1:3">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>457</v>
       </c>
@@ -7458,7 +6841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="21" spans="1:3">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>457</v>
       </c>
@@ -7469,7 +6852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="21" spans="1:3">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>457</v>
       </c>
@@ -7480,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="21" spans="1:3">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>457</v>
       </c>
@@ -7491,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="21" spans="1:3">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>457</v>
       </c>
@@ -7502,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" ht="21" spans="1:3">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>457</v>
       </c>
@@ -7513,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="21" spans="1:3">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>457</v>
       </c>
@@ -7524,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="21" spans="1:3">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>457</v>
       </c>
@@ -7535,7 +6918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="21" spans="1:3">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>457</v>
       </c>
@@ -7546,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="21" spans="1:3">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>457</v>
       </c>
@@ -7562,454 +6945,454 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId47" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B119" r:id="rId101" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId102" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId103" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId104" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId105" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId106" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId107" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId108" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId109" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId110" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId111" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId107" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId112" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId113" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId114" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId115" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId116" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId117" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId118" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId119" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId120" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId121" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId122" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId123" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId124" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId125" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId126" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId127" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId128" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId129" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId130" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId131" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId132" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId133" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId134" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId135" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId136" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId137" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId138" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId139" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId140" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId141" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId142" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId143" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId144" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId145" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId146" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId147" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId148" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId149" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId150" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId151" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId152" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId153" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId154" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId155" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId156" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId157" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId158" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId159" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId160" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId161" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId162" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId163" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId164" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId165" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId166" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId167" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId168" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId169" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId170" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId171" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId172" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId173" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId174" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId175" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId176" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId177" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId178" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId179" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId180" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId181" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId182" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId183" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId184" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId185" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId186" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId187" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId188" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId189" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId190" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId191" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId192" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId193" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId194" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId195" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId196" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId197" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId198" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId199" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId200" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId201" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId202" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId203" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId204" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId205" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId206" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId207" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId208" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId209" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId210" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId211" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId212" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId213" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId214" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId215" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId216" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId217" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId218" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId219" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId220" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId221" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId222" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId223" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId224" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId225" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId226" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId227" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId228" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId229" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId230" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId231" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId232" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId233" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId234" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId235" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId236" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId237" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId238" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId239" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId240" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId241" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId242" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId243" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId244" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId245" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId246" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId247" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId248" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId249" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId250" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId251" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId252" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId253" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId254" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId255" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId256" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId257" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId258" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId259" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId260" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId261" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId262" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId263" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId264" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId265" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId266" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId267" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId268" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId269" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId270" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId271" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId272" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId273" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId274" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId275" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId276" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId277" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId278" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId279" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId280" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId281" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId282" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId283" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId284" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId285" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId286" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId287" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId288" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId289" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId290" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId291" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId292" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId293" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId294" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId295" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId152" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId296" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId297" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId298" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId299" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId300" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId301" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId302" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId303" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId304" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId305" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId147" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId306" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId307" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId308" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId240" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId309" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId310" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId311" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId312" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId313" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId314" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId315" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId243" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId316" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId317" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId318" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId319" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId320" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId321" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId322" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId323" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId324" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId325" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId326" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId327" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId328" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId329" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId330" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId331" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId332" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId333" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId334" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId335" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId336" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId337" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId338" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId339" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId340" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId341" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId342" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId343" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId343" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId256" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId248" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId344" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId345" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId346" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId347" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId348" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId220" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId349" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId350" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId351" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId352" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId353" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId354" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId355" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId356" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId357" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId358" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId359" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId360" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId250" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId361" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId362" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId363" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId364" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId365" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId366" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId367" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId368" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId369" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId370" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId371" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId372" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId373" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId374" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId375" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId376" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId377" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId378" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId379" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId380" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId381" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId382" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId383" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId384" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId386" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId250" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId387" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId388" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId389" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId390" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId391" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId393" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId394" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId395" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId396" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId397" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId398" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId399" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId400" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId401" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId403" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId404" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId405" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId406" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId407" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId408" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId409" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId410" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId411" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId412" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId413" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId414" display="Create a Graph, print it"/>
-    <hyperlink ref="B56" r:id="rId415" display="Reverse a String"/>
-    <hyperlink ref="B118" r:id="rId416" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17"/>
+    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B24" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B47" r:id="rId40"/>
+    <hyperlink ref="B48" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B53" r:id="rId46"/>
+    <hyperlink ref="B57" r:id="rId47"/>
+    <hyperlink ref="B58" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="B61" r:id="rId50"/>
+    <hyperlink ref="B62" r:id="rId51"/>
+    <hyperlink ref="B63" r:id="rId52"/>
+    <hyperlink ref="B64" r:id="rId53"/>
+    <hyperlink ref="B65" r:id="rId54"/>
+    <hyperlink ref="B66" r:id="rId55"/>
+    <hyperlink ref="B67" r:id="rId56"/>
+    <hyperlink ref="B68" r:id="rId57"/>
+    <hyperlink ref="B69" r:id="rId58"/>
+    <hyperlink ref="B70" r:id="rId59"/>
+    <hyperlink ref="B71" r:id="rId60"/>
+    <hyperlink ref="B72" r:id="rId61"/>
+    <hyperlink ref="B73" r:id="rId62"/>
+    <hyperlink ref="B74" r:id="rId63"/>
+    <hyperlink ref="B75" r:id="rId64"/>
+    <hyperlink ref="B76" r:id="rId65"/>
+    <hyperlink ref="B77" r:id="rId66"/>
+    <hyperlink ref="B78" r:id="rId67"/>
+    <hyperlink ref="B79" r:id="rId68"/>
+    <hyperlink ref="B80" r:id="rId69"/>
+    <hyperlink ref="B81" r:id="rId70"/>
+    <hyperlink ref="B82" r:id="rId71"/>
+    <hyperlink ref="B83" r:id="rId72"/>
+    <hyperlink ref="B84" r:id="rId73"/>
+    <hyperlink ref="B85" r:id="rId74"/>
+    <hyperlink ref="B86" r:id="rId75"/>
+    <hyperlink ref="B87" r:id="rId76"/>
+    <hyperlink ref="B88" r:id="rId77"/>
+    <hyperlink ref="B89" r:id="rId78"/>
+    <hyperlink ref="B90" r:id="rId79"/>
+    <hyperlink ref="B91" r:id="rId80"/>
+    <hyperlink ref="B92" r:id="rId81"/>
+    <hyperlink ref="B93" r:id="rId82"/>
+    <hyperlink ref="B94" r:id="rId83"/>
+    <hyperlink ref="B95" r:id="rId84"/>
+    <hyperlink ref="B96" r:id="rId85"/>
+    <hyperlink ref="B97" r:id="rId86"/>
+    <hyperlink ref="B98" r:id="rId87"/>
+    <hyperlink ref="B101" r:id="rId88"/>
+    <hyperlink ref="B102" r:id="rId89"/>
+    <hyperlink ref="B103" r:id="rId90"/>
+    <hyperlink ref="B104" r:id="rId91"/>
+    <hyperlink ref="B106" r:id="rId92"/>
+    <hyperlink ref="B107" r:id="rId93"/>
+    <hyperlink ref="B108" r:id="rId94"/>
+    <hyperlink ref="B109" r:id="rId95"/>
+    <hyperlink ref="B110" r:id="rId96"/>
+    <hyperlink ref="B111" r:id="rId97"/>
+    <hyperlink ref="B113" r:id="rId98"/>
+    <hyperlink ref="B114" r:id="rId99"/>
+    <hyperlink ref="B115" r:id="rId100"/>
+    <hyperlink ref="B116" r:id="rId101"/>
+    <hyperlink ref="B117" r:id="rId102"/>
+    <hyperlink ref="B119" r:id="rId103"/>
+    <hyperlink ref="B120" r:id="rId104"/>
+    <hyperlink ref="B121" r:id="rId105"/>
+    <hyperlink ref="B122" r:id="rId106"/>
+    <hyperlink ref="B123" r:id="rId107"/>
+    <hyperlink ref="B124" r:id="rId108"/>
+    <hyperlink ref="B125" r:id="rId109"/>
+    <hyperlink ref="B126" r:id="rId110"/>
+    <hyperlink ref="B127" r:id="rId111"/>
+    <hyperlink ref="B128" r:id="rId112"/>
+    <hyperlink ref="B129" r:id="rId113"/>
+    <hyperlink ref="B130" r:id="rId114"/>
+    <hyperlink ref="B131" r:id="rId115"/>
+    <hyperlink ref="B132" r:id="rId116"/>
+    <hyperlink ref="B133" r:id="rId117"/>
+    <hyperlink ref="B134" r:id="rId118"/>
+    <hyperlink ref="B135" r:id="rId119"/>
+    <hyperlink ref="B136" r:id="rId120"/>
+    <hyperlink ref="B105" r:id="rId121"/>
+    <hyperlink ref="B112" r:id="rId122"/>
+    <hyperlink ref="B139" r:id="rId123"/>
+    <hyperlink ref="B140" r:id="rId124"/>
+    <hyperlink ref="B141" r:id="rId125"/>
+    <hyperlink ref="B142" r:id="rId126"/>
+    <hyperlink ref="B143" r:id="rId127"/>
+    <hyperlink ref="B144" r:id="rId128"/>
+    <hyperlink ref="B145" r:id="rId129"/>
+    <hyperlink ref="B146" r:id="rId130"/>
+    <hyperlink ref="B147" r:id="rId131"/>
+    <hyperlink ref="B148" r:id="rId132"/>
+    <hyperlink ref="B149" r:id="rId133"/>
+    <hyperlink ref="B150" r:id="rId134"/>
+    <hyperlink ref="B151" r:id="rId135"/>
+    <hyperlink ref="B152" r:id="rId136"/>
+    <hyperlink ref="B153" r:id="rId137"/>
+    <hyperlink ref="B154" r:id="rId138"/>
+    <hyperlink ref="B155" r:id="rId139"/>
+    <hyperlink ref="B156" r:id="rId140"/>
+    <hyperlink ref="B157" r:id="rId141"/>
+    <hyperlink ref="B158" r:id="rId142"/>
+    <hyperlink ref="B159" r:id="rId143"/>
+    <hyperlink ref="B160" r:id="rId144"/>
+    <hyperlink ref="B161" r:id="rId145"/>
+    <hyperlink ref="B162" r:id="rId146"/>
+    <hyperlink ref="B163" r:id="rId147"/>
+    <hyperlink ref="B166" r:id="rId148"/>
+    <hyperlink ref="B167" r:id="rId149"/>
+    <hyperlink ref="B168" r:id="rId150"/>
+    <hyperlink ref="B169" r:id="rId151"/>
+    <hyperlink ref="B170" r:id="rId152"/>
+    <hyperlink ref="B171" r:id="rId153"/>
+    <hyperlink ref="B172" r:id="rId154"/>
+    <hyperlink ref="B173" r:id="rId155"/>
+    <hyperlink ref="B174" r:id="rId156"/>
+    <hyperlink ref="B177" r:id="rId157"/>
+    <hyperlink ref="B178" r:id="rId158"/>
+    <hyperlink ref="B179" r:id="rId159"/>
+    <hyperlink ref="B180" r:id="rId160"/>
+    <hyperlink ref="B181" r:id="rId161"/>
+    <hyperlink ref="B182" r:id="rId162"/>
+    <hyperlink ref="B183" r:id="rId163"/>
+    <hyperlink ref="B184" r:id="rId164"/>
+    <hyperlink ref="B185" r:id="rId165"/>
+    <hyperlink ref="B186" r:id="rId166"/>
+    <hyperlink ref="B187" r:id="rId167"/>
+    <hyperlink ref="B188" r:id="rId168"/>
+    <hyperlink ref="B189" r:id="rId169"/>
+    <hyperlink ref="B190" r:id="rId170"/>
+    <hyperlink ref="B191" r:id="rId171"/>
+    <hyperlink ref="B192" r:id="rId172"/>
+    <hyperlink ref="B193" r:id="rId173"/>
+    <hyperlink ref="B194" r:id="rId174"/>
+    <hyperlink ref="B195" r:id="rId175"/>
+    <hyperlink ref="B196" r:id="rId176"/>
+    <hyperlink ref="B197" r:id="rId177"/>
+    <hyperlink ref="B198" r:id="rId178"/>
+    <hyperlink ref="B199" r:id="rId179"/>
+    <hyperlink ref="B200" r:id="rId180"/>
+    <hyperlink ref="B201" r:id="rId181"/>
+    <hyperlink ref="B202" r:id="rId182"/>
+    <hyperlink ref="B203" r:id="rId183"/>
+    <hyperlink ref="B204" r:id="rId184"/>
+    <hyperlink ref="B205" r:id="rId185"/>
+    <hyperlink ref="B206" r:id="rId186"/>
+    <hyperlink ref="B207" r:id="rId187"/>
+    <hyperlink ref="B208" r:id="rId188"/>
+    <hyperlink ref="B209" r:id="rId189"/>
+    <hyperlink ref="B210" r:id="rId190"/>
+    <hyperlink ref="B211" r:id="rId191"/>
+    <hyperlink ref="B214" r:id="rId192"/>
+    <hyperlink ref="B215" r:id="rId193"/>
+    <hyperlink ref="B216" r:id="rId194"/>
+    <hyperlink ref="B217" r:id="rId195"/>
+    <hyperlink ref="B218" r:id="rId196"/>
+    <hyperlink ref="B219" r:id="rId197"/>
+    <hyperlink ref="B220" r:id="rId198"/>
+    <hyperlink ref="B221" r:id="rId199"/>
+    <hyperlink ref="B222" r:id="rId200"/>
+    <hyperlink ref="B223" r:id="rId201"/>
+    <hyperlink ref="B224" r:id="rId202"/>
+    <hyperlink ref="B225" r:id="rId203"/>
+    <hyperlink ref="B226" r:id="rId204"/>
+    <hyperlink ref="B227" r:id="rId205"/>
+    <hyperlink ref="B228" r:id="rId206"/>
+    <hyperlink ref="B229" r:id="rId207"/>
+    <hyperlink ref="B230" r:id="rId208"/>
+    <hyperlink ref="B231" r:id="rId209"/>
+    <hyperlink ref="B232" r:id="rId210"/>
+    <hyperlink ref="B233" r:id="rId211"/>
+    <hyperlink ref="B234" r:id="rId212"/>
+    <hyperlink ref="B235" r:id="rId213"/>
+    <hyperlink ref="B238" r:id="rId214"/>
+    <hyperlink ref="B239" r:id="rId215"/>
+    <hyperlink ref="B240" r:id="rId216"/>
+    <hyperlink ref="B241" r:id="rId217"/>
+    <hyperlink ref="B242" r:id="rId218"/>
+    <hyperlink ref="B243" r:id="rId219"/>
+    <hyperlink ref="B244" r:id="rId220"/>
+    <hyperlink ref="B245" r:id="rId221"/>
+    <hyperlink ref="B246" r:id="rId222"/>
+    <hyperlink ref="B247" r:id="rId223"/>
+    <hyperlink ref="B248" r:id="rId224"/>
+    <hyperlink ref="B249" r:id="rId225"/>
+    <hyperlink ref="B250" r:id="rId226"/>
+    <hyperlink ref="B251" r:id="rId227"/>
+    <hyperlink ref="B252" r:id="rId228"/>
+    <hyperlink ref="B253" r:id="rId229"/>
+    <hyperlink ref="B254" r:id="rId230"/>
+    <hyperlink ref="B255" r:id="rId231"/>
+    <hyperlink ref="B256" r:id="rId232"/>
+    <hyperlink ref="B257" r:id="rId233"/>
+    <hyperlink ref="B258" r:id="rId234"/>
+    <hyperlink ref="B259" r:id="rId235"/>
+    <hyperlink ref="B260" r:id="rId236"/>
+    <hyperlink ref="B261" r:id="rId237"/>
+    <hyperlink ref="B262" r:id="rId238"/>
+    <hyperlink ref="B263" r:id="rId239"/>
+    <hyperlink ref="B264" r:id="rId240"/>
+    <hyperlink ref="B265" r:id="rId241"/>
+    <hyperlink ref="B266" r:id="rId242"/>
+    <hyperlink ref="B267" r:id="rId243"/>
+    <hyperlink ref="B268" r:id="rId244"/>
+    <hyperlink ref="B269" r:id="rId245"/>
+    <hyperlink ref="B270" r:id="rId246"/>
+    <hyperlink ref="B271" r:id="rId247"/>
+    <hyperlink ref="B272" r:id="rId248"/>
+    <hyperlink ref="B275" r:id="rId249"/>
+    <hyperlink ref="B276" r:id="rId250"/>
+    <hyperlink ref="B277" r:id="rId251"/>
+    <hyperlink ref="B278" r:id="rId252"/>
+    <hyperlink ref="B279" r:id="rId253"/>
+    <hyperlink ref="B280" r:id="rId254"/>
+    <hyperlink ref="B281" r:id="rId255"/>
+    <hyperlink ref="B282" r:id="rId256"/>
+    <hyperlink ref="B283" r:id="rId257"/>
+    <hyperlink ref="B284" r:id="rId258"/>
+    <hyperlink ref="B285" r:id="rId259"/>
+    <hyperlink ref="B286" r:id="rId260"/>
+    <hyperlink ref="B287" r:id="rId261"/>
+    <hyperlink ref="B288" r:id="rId262"/>
+    <hyperlink ref="B289" r:id="rId263"/>
+    <hyperlink ref="B290" r:id="rId264"/>
+    <hyperlink ref="B291" r:id="rId265"/>
+    <hyperlink ref="B292" r:id="rId266"/>
+    <hyperlink ref="B293" r:id="rId267"/>
+    <hyperlink ref="B296" r:id="rId268"/>
+    <hyperlink ref="B297" r:id="rId269"/>
+    <hyperlink ref="B298" r:id="rId270"/>
+    <hyperlink ref="B299" r:id="rId271"/>
+    <hyperlink ref="B300" r:id="rId272"/>
+    <hyperlink ref="B301" r:id="rId273"/>
+    <hyperlink ref="B302" r:id="rId274"/>
+    <hyperlink ref="B303" r:id="rId275"/>
+    <hyperlink ref="B304" r:id="rId276"/>
+    <hyperlink ref="B305" r:id="rId277"/>
+    <hyperlink ref="B306" r:id="rId278"/>
+    <hyperlink ref="B307" r:id="rId279"/>
+    <hyperlink ref="B308" r:id="rId280"/>
+    <hyperlink ref="B309" r:id="rId281"/>
+    <hyperlink ref="B310" r:id="rId282"/>
+    <hyperlink ref="B311" r:id="rId283"/>
+    <hyperlink ref="B312" r:id="rId284"/>
+    <hyperlink ref="B313" r:id="rId285"/>
+    <hyperlink ref="B314" r:id="rId286"/>
+    <hyperlink ref="B315" r:id="rId287"/>
+    <hyperlink ref="B316" r:id="rId288"/>
+    <hyperlink ref="B317" r:id="rId289"/>
+    <hyperlink ref="B318" r:id="rId290"/>
+    <hyperlink ref="B319" r:id="rId291"/>
+    <hyperlink ref="B320" r:id="rId292"/>
+    <hyperlink ref="B321" r:id="rId293"/>
+    <hyperlink ref="B322" r:id="rId294"/>
+    <hyperlink ref="B323" r:id="rId295"/>
+    <hyperlink ref="B324" r:id="rId296"/>
+    <hyperlink ref="B325" r:id="rId297"/>
+    <hyperlink ref="B326" r:id="rId298"/>
+    <hyperlink ref="B327" r:id="rId299"/>
+    <hyperlink ref="B328" r:id="rId300"/>
+    <hyperlink ref="B329" r:id="rId301"/>
+    <hyperlink ref="B330" r:id="rId302"/>
+    <hyperlink ref="B331" r:id="rId303"/>
+    <hyperlink ref="B332" r:id="rId304"/>
+    <hyperlink ref="B333" r:id="rId305"/>
+    <hyperlink ref="B336" r:id="rId306"/>
+    <hyperlink ref="B337" r:id="rId307"/>
+    <hyperlink ref="B338" r:id="rId308"/>
+    <hyperlink ref="B339" r:id="rId309"/>
+    <hyperlink ref="B340" r:id="rId310"/>
+    <hyperlink ref="B341" r:id="rId311"/>
+    <hyperlink ref="B342" r:id="rId312"/>
+    <hyperlink ref="B343" r:id="rId313"/>
+    <hyperlink ref="B344" r:id="rId314"/>
+    <hyperlink ref="B345" r:id="rId315"/>
+    <hyperlink ref="B346" r:id="rId316"/>
+    <hyperlink ref="B347" r:id="rId317"/>
+    <hyperlink ref="B348" r:id="rId318"/>
+    <hyperlink ref="B349" r:id="rId319"/>
+    <hyperlink ref="B350" r:id="rId320"/>
+    <hyperlink ref="B351" r:id="rId321"/>
+    <hyperlink ref="B352" r:id="rId322"/>
+    <hyperlink ref="B353" r:id="rId323"/>
+    <hyperlink ref="B357" r:id="rId324"/>
+    <hyperlink ref="B358" r:id="rId325"/>
+    <hyperlink ref="B359" r:id="rId326"/>
+    <hyperlink ref="B360" r:id="rId327"/>
+    <hyperlink ref="B361" r:id="rId328"/>
+    <hyperlink ref="B362" r:id="rId329"/>
+    <hyperlink ref="B363" r:id="rId330"/>
+    <hyperlink ref="B364" r:id="rId331"/>
+    <hyperlink ref="B365" r:id="rId332"/>
+    <hyperlink ref="B366" r:id="rId333"/>
+    <hyperlink ref="B367" r:id="rId334"/>
+    <hyperlink ref="B368" r:id="rId335"/>
+    <hyperlink ref="B369" r:id="rId336"/>
+    <hyperlink ref="B370" r:id="rId337"/>
+    <hyperlink ref="B371" r:id="rId338"/>
+    <hyperlink ref="B372" r:id="rId339"/>
+    <hyperlink ref="B373" r:id="rId340"/>
+    <hyperlink ref="B374" r:id="rId341"/>
+    <hyperlink ref="B375" r:id="rId342"/>
+    <hyperlink ref="B376" r:id="rId343"/>
+    <hyperlink ref="B377" r:id="rId344"/>
+    <hyperlink ref="B378" r:id="rId345"/>
+    <hyperlink ref="B379" r:id="rId346"/>
+    <hyperlink ref="B380" r:id="rId347"/>
+    <hyperlink ref="B381" r:id="rId348"/>
+    <hyperlink ref="B382" r:id="rId349"/>
+    <hyperlink ref="B383" r:id="rId350"/>
+    <hyperlink ref="B384" r:id="rId351"/>
+    <hyperlink ref="B385" r:id="rId352"/>
+    <hyperlink ref="B386" r:id="rId353"/>
+    <hyperlink ref="B387" r:id="rId354"/>
+    <hyperlink ref="B388" r:id="rId355"/>
+    <hyperlink ref="B389" r:id="rId356"/>
+    <hyperlink ref="B390" r:id="rId357"/>
+    <hyperlink ref="B391" r:id="rId358"/>
+    <hyperlink ref="B392" r:id="rId359"/>
+    <hyperlink ref="B393" r:id="rId360"/>
+    <hyperlink ref="B394" r:id="rId361"/>
+    <hyperlink ref="B396" r:id="rId362"/>
+    <hyperlink ref="B395" r:id="rId363"/>
+    <hyperlink ref="B397" r:id="rId364"/>
+    <hyperlink ref="B398" r:id="rId365"/>
+    <hyperlink ref="B399" r:id="rId366"/>
+    <hyperlink ref="B402" r:id="rId367"/>
+    <hyperlink ref="B403" r:id="rId368"/>
+    <hyperlink ref="B404" r:id="rId369"/>
+    <hyperlink ref="B405" r:id="rId370"/>
+    <hyperlink ref="B406" r:id="rId371"/>
+    <hyperlink ref="B407" r:id="rId372"/>
+    <hyperlink ref="B410" r:id="rId373"/>
+    <hyperlink ref="B411" r:id="rId374"/>
+    <hyperlink ref="B412" r:id="rId375"/>
+    <hyperlink ref="B413" r:id="rId376"/>
+    <hyperlink ref="B414" r:id="rId377"/>
+    <hyperlink ref="B415" r:id="rId378"/>
+    <hyperlink ref="B416" r:id="rId379"/>
+    <hyperlink ref="B417" r:id="rId380"/>
+    <hyperlink ref="B418" r:id="rId381"/>
+    <hyperlink ref="B419" r:id="rId382"/>
+    <hyperlink ref="B420" r:id="rId383"/>
+    <hyperlink ref="B421" r:id="rId384"/>
+    <hyperlink ref="B422" r:id="rId385"/>
+    <hyperlink ref="B423" r:id="rId386"/>
+    <hyperlink ref="B424" r:id="rId387"/>
+    <hyperlink ref="B425" r:id="rId388"/>
+    <hyperlink ref="B426" r:id="rId389"/>
+    <hyperlink ref="B427" r:id="rId390"/>
+    <hyperlink ref="B428" r:id="rId391"/>
+    <hyperlink ref="B429" r:id="rId392"/>
+    <hyperlink ref="B430" r:id="rId393"/>
+    <hyperlink ref="B431" r:id="rId394"/>
+    <hyperlink ref="B432" r:id="rId395"/>
+    <hyperlink ref="B433" r:id="rId396"/>
+    <hyperlink ref="B434" r:id="rId397"/>
+    <hyperlink ref="B435" r:id="rId398"/>
+    <hyperlink ref="B436" r:id="rId399"/>
+    <hyperlink ref="B437" r:id="rId400"/>
+    <hyperlink ref="B438" r:id="rId401"/>
+    <hyperlink ref="B439" r:id="rId402"/>
+    <hyperlink ref="B440" r:id="rId403"/>
+    <hyperlink ref="B441" r:id="rId404"/>
+    <hyperlink ref="B442" r:id="rId405"/>
+    <hyperlink ref="B443" r:id="rId406"/>
+    <hyperlink ref="B444" r:id="rId407"/>
+    <hyperlink ref="B445" r:id="rId408"/>
+    <hyperlink ref="B446" r:id="rId409"/>
+    <hyperlink ref="B447" r:id="rId410"/>
+    <hyperlink ref="B448" r:id="rId411"/>
+    <hyperlink ref="B449" r:id="rId412"/>
+    <hyperlink ref="B451" r:id="rId413"/>
+    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B452" r:id="rId415"/>
+    <hyperlink ref="B453" r:id="rId416"/>
+    <hyperlink ref="B454" r:id="rId417"/>
+    <hyperlink ref="B455" r:id="rId418"/>
+    <hyperlink ref="B456" r:id="rId419"/>
+    <hyperlink ref="B457" r:id="rId420"/>
+    <hyperlink ref="B458" r:id="rId421"/>
+    <hyperlink ref="B459" r:id="rId422"/>
+    <hyperlink ref="B460" r:id="rId423"/>
+    <hyperlink ref="B461" r:id="rId424"/>
+    <hyperlink ref="B462" r:id="rId425"/>
+    <hyperlink ref="B469" r:id="rId426"/>
+    <hyperlink ref="B468" r:id="rId427"/>
+    <hyperlink ref="B467" r:id="rId428"/>
+    <hyperlink ref="B466" r:id="rId429"/>
+    <hyperlink ref="B465" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B463" r:id="rId432"/>
+    <hyperlink ref="B472" r:id="rId433"/>
+    <hyperlink ref="B473" r:id="rId434"/>
+    <hyperlink ref="B474" r:id="rId435"/>
+    <hyperlink ref="B475" r:id="rId436"/>
+    <hyperlink ref="B476" r:id="rId437"/>
+    <hyperlink ref="B477" r:id="rId438"/>
+    <hyperlink ref="B478" r:id="rId439"/>
+    <hyperlink ref="B481" r:id="rId440"/>
+    <hyperlink ref="B479" r:id="rId441"/>
+    <hyperlink ref="B480" r:id="rId442"/>
+    <hyperlink ref="B356" r:id="rId443"/>
+    <hyperlink ref="B56" r:id="rId444"/>
+    <hyperlink ref="B118" r:id="rId445"/>
+    <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4187,8 +4187,8 @@
       <c r="B221" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
+      <c r="C221" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4198,8 +4198,8 @@
       <c r="B222" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>5</v>
+      <c r="C222" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4209,8 +4209,8 @@
       <c r="B223" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>5</v>
+      <c r="C223" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4220,8 +4220,8 @@
       <c r="B224" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>5</v>
+      <c r="C224" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">

--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$481</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1093,9 +1093,6 @@
     <t>Making wired Connections</t>
   </si>
   <si>
-    <t xml:space="preserve">word Ladder </t>
-  </si>
-  <si>
     <t>Dijkstra algo</t>
   </si>
   <si>
@@ -1421,13 +1418,16 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>TLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,6 +1514,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1554,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1602,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1601,11 +1610,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1869,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3326,8 +3330,8 @@
       <c r="B140" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>5</v>
+      <c r="C140" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3337,8 +3341,8 @@
       <c r="B141" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>5</v>
+      <c r="C141" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3359,8 +3363,8 @@
       <c r="B143" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>5</v>
+      <c r="C143" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3370,8 +3374,8 @@
       <c r="B144" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>5</v>
+      <c r="C144" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3381,8 +3385,8 @@
       <c r="B145" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>5</v>
+      <c r="C145" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3392,8 +3396,8 @@
       <c r="B146" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>5</v>
+      <c r="C146" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3403,8 +3407,8 @@
       <c r="B147" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>5</v>
+      <c r="C147" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3414,8 +3418,8 @@
       <c r="B148" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>5</v>
+      <c r="C148" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3425,8 +3429,8 @@
       <c r="B149" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>5</v>
+      <c r="C149" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3436,8 +3440,8 @@
       <c r="B150" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>5</v>
+      <c r="C150" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3447,8 +3451,8 @@
       <c r="B151" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>5</v>
+      <c r="C151" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3458,8 +3462,8 @@
       <c r="B152" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>5</v>
+      <c r="C152" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3469,8 +3473,8 @@
       <c r="B153" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>5</v>
+      <c r="C153" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3480,8 +3484,8 @@
       <c r="B154" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>5</v>
+      <c r="C154" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3491,8 +3495,8 @@
       <c r="B155" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>5</v>
+      <c r="C155" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
@@ -3502,8 +3506,8 @@
       <c r="B156" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>5</v>
+      <c r="C156" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3513,8 +3517,8 @@
       <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>5</v>
+      <c r="C157" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3524,8 +3528,8 @@
       <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>5</v>
+      <c r="C158" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3535,8 +3539,8 @@
       <c r="B159" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>5</v>
+      <c r="C159" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -4231,8 +4235,8 @@
       <c r="B225" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>5</v>
+      <c r="C225" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4242,8 +4246,8 @@
       <c r="B226" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
+      <c r="C226" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4330,8 +4334,8 @@
       <c r="B234" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>5</v>
+      <c r="C234" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
@@ -5602,8 +5606,8 @@
       <c r="B356" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
+      <c r="C356" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5613,8 +5617,8 @@
       <c r="B357" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C357" s="5" t="s">
-        <v>5</v>
+      <c r="C357" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5624,8 +5628,8 @@
       <c r="B358" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C358" s="5" t="s">
-        <v>5</v>
+      <c r="C358" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5635,8 +5639,8 @@
       <c r="B359" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C359" s="5" t="s">
-        <v>5</v>
+      <c r="C359" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5646,8 +5650,8 @@
       <c r="B360" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>5</v>
+      <c r="C360" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5657,8 +5661,8 @@
       <c r="B361" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C361" s="5" t="s">
-        <v>5</v>
+      <c r="C361" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5668,8 +5672,8 @@
       <c r="B362" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C362" s="5" t="s">
-        <v>5</v>
+      <c r="C362" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5679,8 +5683,8 @@
       <c r="B363" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C363" s="5" t="s">
-        <v>5</v>
+      <c r="C363" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5690,8 +5694,8 @@
       <c r="B364" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>5</v>
+      <c r="C364" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
@@ -5710,10 +5714,10 @@
         <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>5</v>
+        <v>357</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
@@ -5721,7 +5725,7 @@
         <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5732,10 +5736,10 @@
         <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>5</v>
+        <v>359</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5743,10 +5747,10 @@
         <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>5</v>
+        <v>360</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
@@ -5754,10 +5758,10 @@
         <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>5</v>
+        <v>361</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
@@ -5765,10 +5769,10 @@
         <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>5</v>
+        <v>362</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
@@ -5776,10 +5780,10 @@
         <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>5</v>
+        <v>363</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
@@ -5787,10 +5791,10 @@
         <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>5</v>
+        <v>364</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
@@ -5798,7 +5802,7 @@
         <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5809,7 +5813,7 @@
         <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5820,21 +5824,21 @@
         <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>5</v>
+        <v>367</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B377" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>5</v>
+      <c r="B377" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
@@ -5842,7 +5846,7 @@
         <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5853,7 +5857,7 @@
         <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5864,7 +5868,7 @@
         <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5875,7 +5879,7 @@
         <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5886,7 +5890,7 @@
         <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5897,7 +5901,7 @@
         <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5908,7 +5912,7 @@
         <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5919,7 +5923,7 @@
         <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5930,7 +5934,7 @@
         <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5941,7 +5945,7 @@
         <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5952,7 +5956,7 @@
         <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5963,7 +5967,7 @@
         <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5974,7 +5978,7 @@
         <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5985,7 +5989,7 @@
         <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5996,7 +6000,7 @@
         <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -6007,7 +6011,7 @@
         <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -6018,7 +6022,7 @@
         <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -6029,7 +6033,7 @@
         <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -6040,7 +6044,7 @@
         <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -6051,7 +6055,7 @@
         <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -6062,7 +6066,7 @@
         <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -6073,7 +6077,7 @@
         <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6089,10 +6093,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="B402" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6100,10 +6104,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6111,10 +6115,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6122,7 +6126,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>93</v>
@@ -6133,10 +6137,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6144,10 +6148,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6163,10 +6167,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B410" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6174,10 +6178,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6185,10 +6189,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6196,10 +6200,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6218,10 +6222,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6229,10 +6233,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>277</v>
@@ -6251,10 +6255,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6262,10 +6266,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6273,10 +6277,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6284,10 +6288,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6295,10 +6299,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6306,10 +6310,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6317,10 +6321,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6328,10 +6332,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6339,10 +6343,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6350,10 +6354,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6361,10 +6365,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6372,10 +6376,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6383,10 +6387,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6394,10 +6398,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6405,10 +6409,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6416,10 +6420,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6427,10 +6431,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6438,10 +6442,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6449,10 +6453,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6460,10 +6464,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6471,10 +6475,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6482,10 +6486,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6493,10 +6497,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6504,10 +6508,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6515,10 +6519,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6526,10 +6530,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6537,10 +6541,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6548,10 +6552,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6559,10 +6563,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6570,10 +6574,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6581,10 +6585,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6592,10 +6596,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6603,10 +6607,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6614,10 +6618,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6625,10 +6629,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6636,10 +6640,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6647,10 +6651,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6658,10 +6662,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6669,10 +6673,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6680,10 +6684,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6691,10 +6695,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6702,10 +6706,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6713,10 +6717,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6724,10 +6728,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6735,10 +6739,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6746,10 +6750,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6757,10 +6761,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6768,10 +6772,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6779,10 +6783,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6790,10 +6794,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6801,10 +6805,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6812,10 +6816,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6832,10 +6836,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="B472" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6843,10 +6847,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6854,10 +6858,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6865,10 +6869,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6876,10 +6880,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6887,10 +6891,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6898,10 +6902,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6909,10 +6913,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6920,10 +6924,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6931,19 +6935,17 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C481">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="C1:C481"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
@@ -7277,120 +7279,120 @@
     <hyperlink ref="B363" r:id="rId330"/>
     <hyperlink ref="B364" r:id="rId331"/>
     <hyperlink ref="B365" r:id="rId332"/>
-    <hyperlink ref="B366" r:id="rId333"/>
-    <hyperlink ref="B367" r:id="rId334"/>
-    <hyperlink ref="B368" r:id="rId335"/>
-    <hyperlink ref="B369" r:id="rId336"/>
-    <hyperlink ref="B370" r:id="rId337"/>
-    <hyperlink ref="B371" r:id="rId338"/>
-    <hyperlink ref="B372" r:id="rId339"/>
-    <hyperlink ref="B373" r:id="rId340"/>
-    <hyperlink ref="B374" r:id="rId341"/>
-    <hyperlink ref="B375" r:id="rId342"/>
-    <hyperlink ref="B376" r:id="rId343"/>
-    <hyperlink ref="B377" r:id="rId344"/>
-    <hyperlink ref="B378" r:id="rId345"/>
-    <hyperlink ref="B379" r:id="rId346"/>
-    <hyperlink ref="B380" r:id="rId347"/>
-    <hyperlink ref="B381" r:id="rId348"/>
-    <hyperlink ref="B382" r:id="rId349"/>
-    <hyperlink ref="B383" r:id="rId350"/>
-    <hyperlink ref="B384" r:id="rId351"/>
-    <hyperlink ref="B385" r:id="rId352"/>
-    <hyperlink ref="B386" r:id="rId353"/>
-    <hyperlink ref="B387" r:id="rId354"/>
-    <hyperlink ref="B388" r:id="rId355"/>
-    <hyperlink ref="B389" r:id="rId356"/>
-    <hyperlink ref="B390" r:id="rId357"/>
-    <hyperlink ref="B391" r:id="rId358"/>
-    <hyperlink ref="B392" r:id="rId359"/>
-    <hyperlink ref="B393" r:id="rId360"/>
-    <hyperlink ref="B394" r:id="rId361"/>
-    <hyperlink ref="B396" r:id="rId362"/>
-    <hyperlink ref="B395" r:id="rId363"/>
-    <hyperlink ref="B397" r:id="rId364"/>
-    <hyperlink ref="B398" r:id="rId365"/>
-    <hyperlink ref="B399" r:id="rId366"/>
-    <hyperlink ref="B402" r:id="rId367"/>
-    <hyperlink ref="B403" r:id="rId368"/>
-    <hyperlink ref="B404" r:id="rId369"/>
-    <hyperlink ref="B405" r:id="rId370"/>
-    <hyperlink ref="B406" r:id="rId371"/>
-    <hyperlink ref="B407" r:id="rId372"/>
-    <hyperlink ref="B410" r:id="rId373"/>
-    <hyperlink ref="B411" r:id="rId374"/>
-    <hyperlink ref="B412" r:id="rId375"/>
-    <hyperlink ref="B413" r:id="rId376"/>
-    <hyperlink ref="B414" r:id="rId377"/>
-    <hyperlink ref="B415" r:id="rId378"/>
-    <hyperlink ref="B416" r:id="rId379"/>
-    <hyperlink ref="B417" r:id="rId380"/>
-    <hyperlink ref="B418" r:id="rId381"/>
-    <hyperlink ref="B419" r:id="rId382"/>
-    <hyperlink ref="B420" r:id="rId383"/>
-    <hyperlink ref="B421" r:id="rId384"/>
-    <hyperlink ref="B422" r:id="rId385"/>
-    <hyperlink ref="B423" r:id="rId386"/>
-    <hyperlink ref="B424" r:id="rId387"/>
-    <hyperlink ref="B425" r:id="rId388"/>
-    <hyperlink ref="B426" r:id="rId389"/>
-    <hyperlink ref="B427" r:id="rId390"/>
-    <hyperlink ref="B428" r:id="rId391"/>
-    <hyperlink ref="B429" r:id="rId392"/>
-    <hyperlink ref="B430" r:id="rId393"/>
-    <hyperlink ref="B431" r:id="rId394"/>
-    <hyperlink ref="B432" r:id="rId395"/>
-    <hyperlink ref="B433" r:id="rId396"/>
-    <hyperlink ref="B434" r:id="rId397"/>
-    <hyperlink ref="B435" r:id="rId398"/>
-    <hyperlink ref="B436" r:id="rId399"/>
-    <hyperlink ref="B437" r:id="rId400"/>
-    <hyperlink ref="B438" r:id="rId401"/>
-    <hyperlink ref="B439" r:id="rId402"/>
-    <hyperlink ref="B440" r:id="rId403"/>
-    <hyperlink ref="B441" r:id="rId404"/>
-    <hyperlink ref="B442" r:id="rId405"/>
-    <hyperlink ref="B443" r:id="rId406"/>
-    <hyperlink ref="B444" r:id="rId407"/>
-    <hyperlink ref="B445" r:id="rId408"/>
-    <hyperlink ref="B446" r:id="rId409"/>
-    <hyperlink ref="B447" r:id="rId410"/>
-    <hyperlink ref="B448" r:id="rId411"/>
-    <hyperlink ref="B449" r:id="rId412"/>
-    <hyperlink ref="B451" r:id="rId413"/>
-    <hyperlink ref="B450" r:id="rId414"/>
-    <hyperlink ref="B452" r:id="rId415"/>
-    <hyperlink ref="B453" r:id="rId416"/>
-    <hyperlink ref="B454" r:id="rId417"/>
-    <hyperlink ref="B455" r:id="rId418"/>
-    <hyperlink ref="B456" r:id="rId419"/>
-    <hyperlink ref="B457" r:id="rId420"/>
-    <hyperlink ref="B458" r:id="rId421"/>
-    <hyperlink ref="B459" r:id="rId422"/>
-    <hyperlink ref="B460" r:id="rId423"/>
-    <hyperlink ref="B461" r:id="rId424"/>
-    <hyperlink ref="B462" r:id="rId425"/>
-    <hyperlink ref="B469" r:id="rId426"/>
-    <hyperlink ref="B468" r:id="rId427"/>
-    <hyperlink ref="B467" r:id="rId428"/>
-    <hyperlink ref="B466" r:id="rId429"/>
-    <hyperlink ref="B465" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B463" r:id="rId432"/>
-    <hyperlink ref="B472" r:id="rId433"/>
-    <hyperlink ref="B473" r:id="rId434"/>
-    <hyperlink ref="B474" r:id="rId435"/>
-    <hyperlink ref="B475" r:id="rId436"/>
-    <hyperlink ref="B476" r:id="rId437"/>
-    <hyperlink ref="B477" r:id="rId438"/>
-    <hyperlink ref="B478" r:id="rId439"/>
-    <hyperlink ref="B481" r:id="rId440"/>
-    <hyperlink ref="B479" r:id="rId441"/>
-    <hyperlink ref="B480" r:id="rId442"/>
-    <hyperlink ref="B356" r:id="rId443"/>
-    <hyperlink ref="B56" r:id="rId444"/>
-    <hyperlink ref="B118" r:id="rId445"/>
-    <hyperlink ref="B2" r:id="rId446"/>
+    <hyperlink ref="B367" r:id="rId333"/>
+    <hyperlink ref="B368" r:id="rId334"/>
+    <hyperlink ref="B369" r:id="rId335"/>
+    <hyperlink ref="B370" r:id="rId336"/>
+    <hyperlink ref="B371" r:id="rId337"/>
+    <hyperlink ref="B372" r:id="rId338"/>
+    <hyperlink ref="B373" r:id="rId339"/>
+    <hyperlink ref="B374" r:id="rId340"/>
+    <hyperlink ref="B375" r:id="rId341"/>
+    <hyperlink ref="B376" r:id="rId342"/>
+    <hyperlink ref="B377" r:id="rId343"/>
+    <hyperlink ref="B378" r:id="rId344"/>
+    <hyperlink ref="B379" r:id="rId345"/>
+    <hyperlink ref="B380" r:id="rId346"/>
+    <hyperlink ref="B381" r:id="rId347"/>
+    <hyperlink ref="B382" r:id="rId348"/>
+    <hyperlink ref="B383" r:id="rId349"/>
+    <hyperlink ref="B384" r:id="rId350"/>
+    <hyperlink ref="B385" r:id="rId351"/>
+    <hyperlink ref="B386" r:id="rId352"/>
+    <hyperlink ref="B387" r:id="rId353"/>
+    <hyperlink ref="B388" r:id="rId354"/>
+    <hyperlink ref="B389" r:id="rId355"/>
+    <hyperlink ref="B390" r:id="rId356"/>
+    <hyperlink ref="B391" r:id="rId357"/>
+    <hyperlink ref="B392" r:id="rId358"/>
+    <hyperlink ref="B393" r:id="rId359"/>
+    <hyperlink ref="B394" r:id="rId360"/>
+    <hyperlink ref="B396" r:id="rId361"/>
+    <hyperlink ref="B395" r:id="rId362"/>
+    <hyperlink ref="B397" r:id="rId363"/>
+    <hyperlink ref="B398" r:id="rId364"/>
+    <hyperlink ref="B399" r:id="rId365"/>
+    <hyperlink ref="B402" r:id="rId366"/>
+    <hyperlink ref="B403" r:id="rId367"/>
+    <hyperlink ref="B404" r:id="rId368"/>
+    <hyperlink ref="B405" r:id="rId369"/>
+    <hyperlink ref="B406" r:id="rId370"/>
+    <hyperlink ref="B407" r:id="rId371"/>
+    <hyperlink ref="B410" r:id="rId372"/>
+    <hyperlink ref="B411" r:id="rId373"/>
+    <hyperlink ref="B412" r:id="rId374"/>
+    <hyperlink ref="B413" r:id="rId375"/>
+    <hyperlink ref="B414" r:id="rId376"/>
+    <hyperlink ref="B415" r:id="rId377"/>
+    <hyperlink ref="B416" r:id="rId378"/>
+    <hyperlink ref="B417" r:id="rId379"/>
+    <hyperlink ref="B418" r:id="rId380"/>
+    <hyperlink ref="B419" r:id="rId381"/>
+    <hyperlink ref="B420" r:id="rId382"/>
+    <hyperlink ref="B421" r:id="rId383"/>
+    <hyperlink ref="B422" r:id="rId384"/>
+    <hyperlink ref="B423" r:id="rId385"/>
+    <hyperlink ref="B424" r:id="rId386"/>
+    <hyperlink ref="B425" r:id="rId387"/>
+    <hyperlink ref="B426" r:id="rId388"/>
+    <hyperlink ref="B427" r:id="rId389"/>
+    <hyperlink ref="B428" r:id="rId390"/>
+    <hyperlink ref="B429" r:id="rId391"/>
+    <hyperlink ref="B430" r:id="rId392"/>
+    <hyperlink ref="B431" r:id="rId393"/>
+    <hyperlink ref="B432" r:id="rId394"/>
+    <hyperlink ref="B433" r:id="rId395"/>
+    <hyperlink ref="B434" r:id="rId396"/>
+    <hyperlink ref="B435" r:id="rId397"/>
+    <hyperlink ref="B436" r:id="rId398"/>
+    <hyperlink ref="B437" r:id="rId399"/>
+    <hyperlink ref="B438" r:id="rId400"/>
+    <hyperlink ref="B439" r:id="rId401"/>
+    <hyperlink ref="B440" r:id="rId402"/>
+    <hyperlink ref="B441" r:id="rId403"/>
+    <hyperlink ref="B442" r:id="rId404"/>
+    <hyperlink ref="B443" r:id="rId405"/>
+    <hyperlink ref="B444" r:id="rId406"/>
+    <hyperlink ref="B445" r:id="rId407"/>
+    <hyperlink ref="B446" r:id="rId408"/>
+    <hyperlink ref="B447" r:id="rId409"/>
+    <hyperlink ref="B448" r:id="rId410"/>
+    <hyperlink ref="B449" r:id="rId411"/>
+    <hyperlink ref="B451" r:id="rId412"/>
+    <hyperlink ref="B450" r:id="rId413"/>
+    <hyperlink ref="B452" r:id="rId414"/>
+    <hyperlink ref="B453" r:id="rId415"/>
+    <hyperlink ref="B454" r:id="rId416"/>
+    <hyperlink ref="B455" r:id="rId417"/>
+    <hyperlink ref="B456" r:id="rId418"/>
+    <hyperlink ref="B457" r:id="rId419"/>
+    <hyperlink ref="B458" r:id="rId420"/>
+    <hyperlink ref="B459" r:id="rId421"/>
+    <hyperlink ref="B460" r:id="rId422"/>
+    <hyperlink ref="B461" r:id="rId423"/>
+    <hyperlink ref="B462" r:id="rId424"/>
+    <hyperlink ref="B469" r:id="rId425"/>
+    <hyperlink ref="B468" r:id="rId426"/>
+    <hyperlink ref="B467" r:id="rId427"/>
+    <hyperlink ref="B466" r:id="rId428"/>
+    <hyperlink ref="B465" r:id="rId429"/>
+    <hyperlink ref="B464" r:id="rId430"/>
+    <hyperlink ref="B463" r:id="rId431"/>
+    <hyperlink ref="B472" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433"/>
+    <hyperlink ref="B474" r:id="rId434"/>
+    <hyperlink ref="B475" r:id="rId435"/>
+    <hyperlink ref="B476" r:id="rId436"/>
+    <hyperlink ref="B477" r:id="rId437"/>
+    <hyperlink ref="B478" r:id="rId438"/>
+    <hyperlink ref="B481" r:id="rId439"/>
+    <hyperlink ref="B479" r:id="rId440"/>
+    <hyperlink ref="B480" r:id="rId441"/>
+    <hyperlink ref="B356" r:id="rId442"/>
+    <hyperlink ref="B56" r:id="rId443"/>
+    <hyperlink ref="B118" r:id="rId444"/>
+    <hyperlink ref="B2" r:id="rId445"/>
+    <hyperlink ref="B366" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId447"/>

--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>TLE</t>
+  </si>
+  <si>
+    <t>Rev</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1884,17 +1887,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1905,12 +1908,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1920,8 +1923,11 @@
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1931,19 +1937,22 @@
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="D7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1953,8 +1962,11 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="D9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1964,8 +1976,11 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="D10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1975,8 +1990,11 @@
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1986,8 +2004,11 @@
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1997,8 +2018,11 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="D13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2009,18 +2033,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2030,19 +2057,25 @@
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
+      <c r="D16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
+      <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2052,8 +2085,11 @@
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="D18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2096,8 +2132,11 @@
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
+      <c r="D22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2107,8 +2146,11 @@
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="D23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2118,8 +2160,11 @@
       <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="21">
+      <c r="D24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2140,8 +2185,11 @@
       <c r="C26" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
+      <c r="D26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2151,8 +2199,11 @@
       <c r="C27" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21">
+      <c r="D27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2162,8 +2213,11 @@
       <c r="C28" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
+      <c r="D28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2173,8 +2227,11 @@
       <c r="C29" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21">
+      <c r="D29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2185,18 +2242,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21">
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2206,8 +2266,11 @@
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="21">
+      <c r="D32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2217,19 +2280,25 @@
       <c r="C33" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
+      <c r="D33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2239,8 +2308,11 @@
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+      <c r="D35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2261,8 +2333,11 @@
       <c r="C37" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+      <c r="D37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2273,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2306,20 +2381,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="12"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="13" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -2340,8 +2415,11 @@
       <c r="C45" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="21">
+      <c r="D45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="13" t="s">
         <v>46</v>
       </c>
@@ -2352,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -2363,7 +2441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="13" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="13" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -2396,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
@@ -2407,7 +2485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="13" t="s">
         <v>46</v>
       </c>
@@ -2418,7 +2496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="13" t="s">
         <v>46</v>
       </c>
@@ -2429,12 +2507,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="12"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2444,8 +2522,11 @@
       <c r="C56" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="D56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -2455,8 +2536,11 @@
       <c r="C57" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="D57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2466,8 +2550,11 @@
       <c r="C58" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="D58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -2478,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -2488,8 +2575,11 @@
       <c r="C60" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="D60" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -2499,8 +2589,11 @@
       <c r="C61" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21">
+      <c r="D61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -2511,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
@@ -2521,19 +2614,25 @@
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="21">
+      <c r="D63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+      <c r="C64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="6" t="s">
         <v>57</v>
       </c>
@@ -2543,8 +2642,11 @@
       <c r="C65" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+      <c r="D65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
@@ -2554,8 +2656,11 @@
       <c r="C66" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+      <c r="D66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
@@ -2565,8 +2670,11 @@
       <c r="C67" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+      <c r="D67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -2577,18 +2685,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="6" t="s">
         <v>57</v>
       </c>
@@ -2599,7 +2710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -2609,8 +2720,11 @@
       <c r="C71" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+      <c r="D71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="6" t="s">
         <v>57</v>
       </c>
@@ -2621,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="6" t="s">
         <v>57</v>
       </c>
@@ -2631,8 +2745,11 @@
       <c r="C73" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
+      <c r="D73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="6" t="s">
         <v>57</v>
       </c>
@@ -2643,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -2654,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="6" t="s">
         <v>57</v>
       </c>
@@ -2664,8 +2781,11 @@
       <c r="C76" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
+      <c r="D76" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="6" t="s">
         <v>57</v>
       </c>
@@ -2675,30 +2795,39 @@
       <c r="C77" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="21">
+      <c r="D77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
+      <c r="C78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="21">
+      <c r="C79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="6" t="s">
         <v>57</v>
       </c>
@@ -2709,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
@@ -2720,18 +2849,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
+      <c r="C82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="6" t="s">
         <v>57</v>
       </c>
@@ -2742,18 +2874,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
+      <c r="C84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="6" t="s">
         <v>57</v>
       </c>
@@ -2764,18 +2899,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
+      <c r="C86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="6" t="s">
         <v>57</v>
       </c>
@@ -2786,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="6" t="s">
         <v>57</v>
       </c>
@@ -2797,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="6" t="s">
         <v>57</v>
       </c>
@@ -2808,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="6" t="s">
         <v>57</v>
       </c>
@@ -2819,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -2830,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -2841,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="6" t="s">
         <v>57</v>
       </c>
@@ -2852,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="6" t="s">
         <v>57</v>
       </c>
@@ -2863,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="6" t="s">
         <v>57</v>
       </c>
@@ -2874,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="6" t="s">
         <v>57</v>
       </c>
@@ -2885,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="6" t="s">
         <v>57</v>
       </c>
@@ -2896,7 +3034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -2907,12 +3045,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="6" t="s">
         <v>101</v>
       </c>
@@ -2922,8 +3060,11 @@
       <c r="C101" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
+      <c r="D101" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
@@ -2933,8 +3074,11 @@
       <c r="C102" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
+      <c r="D102" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -2944,8 +3088,11 @@
       <c r="C103" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+      <c r="D103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="6" t="s">
         <v>101</v>
       </c>
@@ -2955,8 +3102,11 @@
       <c r="C104" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+      <c r="D104" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="6" t="s">
         <v>101</v>
       </c>
@@ -2966,8 +3116,11 @@
       <c r="C105" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
+      <c r="D105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="6" t="s">
         <v>101</v>
       </c>
@@ -2978,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="6" t="s">
         <v>101</v>
       </c>
@@ -2988,8 +3141,11 @@
       <c r="C107" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
+      <c r="D107" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="6" t="s">
         <v>101</v>
       </c>
@@ -2999,8 +3155,11 @@
       <c r="C108" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
+      <c r="D108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="6" t="s">
         <v>101</v>
       </c>
@@ -3010,8 +3169,11 @@
       <c r="C109" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="21">
+      <c r="D109" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="6" t="s">
         <v>101</v>
       </c>
@@ -3021,8 +3183,11 @@
       <c r="C110" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="21">
+      <c r="D110" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="6" t="s">
         <v>101</v>
       </c>
@@ -3032,19 +3197,25 @@
       <c r="C111" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="21">
+      <c r="D111" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21">
+      <c r="C112" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="6" t="s">
         <v>101</v>
       </c>
@@ -3054,8 +3225,11 @@
       <c r="C113" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="21">
+      <c r="D113" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="6" t="s">
         <v>101</v>
       </c>
@@ -3065,8 +3239,11 @@
       <c r="C114" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+      <c r="D114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="6" t="s">
         <v>101</v>
       </c>
@@ -3076,8 +3253,11 @@
       <c r="C115" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="21">
+      <c r="D115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="6" t="s">
         <v>101</v>
       </c>
@@ -3087,8 +3267,11 @@
       <c r="C116" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="21">
+      <c r="D116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="6" t="s">
         <v>101</v>
       </c>
@@ -3099,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="6" t="s">
         <v>101</v>
       </c>
@@ -3109,8 +3292,11 @@
       <c r="C118" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
+      <c r="D118" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="6" t="s">
         <v>101</v>
       </c>
@@ -3121,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="6" t="s">
         <v>101</v>
       </c>
@@ -3132,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="6" t="s">
         <v>101</v>
       </c>
@@ -3143,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="6" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="6" t="s">
         <v>101</v>
       </c>
@@ -3165,7 +3351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
@@ -3176,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -3187,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -3198,7 +3384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -3209,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -3220,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -3231,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -3242,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -3253,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -3264,7 +3450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -3275,7 +3461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -3286,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -3297,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -3308,11 +3494,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" spans="1:4" ht="21">
       <c r="B138" s="12"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:4" ht="21">
       <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
@@ -3322,8 +3508,11 @@
       <c r="C139" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
+      <c r="D139" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21">
       <c r="A140" s="13" t="s">
         <v>138</v>
       </c>
@@ -3333,8 +3522,11 @@
       <c r="C140" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
+      <c r="D140" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="13" t="s">
         <v>138</v>
       </c>
@@ -3344,19 +3536,25 @@
       <c r="C141" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
+      <c r="D141" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
+      <c r="C142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="13" t="s">
         <v>138</v>
       </c>
@@ -3366,8 +3564,11 @@
       <c r="C143" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
+      <c r="D143" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="13" t="s">
         <v>138</v>
       </c>
@@ -3377,8 +3578,11 @@
       <c r="C144" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+      <c r="D144" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="13" t="s">
         <v>138</v>
       </c>
@@ -3388,8 +3592,11 @@
       <c r="C145" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
+      <c r="D145" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="13" t="s">
         <v>138</v>
       </c>
@@ -3399,8 +3606,11 @@
       <c r="C146" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+      <c r="D146" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="13" t="s">
         <v>138</v>
       </c>
@@ -3410,8 +3620,11 @@
       <c r="C147" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="D147" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="13" t="s">
         <v>138</v>
       </c>
@@ -3421,8 +3634,11 @@
       <c r="C148" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
+      <c r="D148" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="13" t="s">
         <v>138</v>
       </c>
@@ -3432,8 +3648,11 @@
       <c r="C149" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="21">
+      <c r="D149" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="13" t="s">
         <v>138</v>
       </c>
@@ -3443,8 +3662,11 @@
       <c r="C150" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="21">
+      <c r="D150" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="13" t="s">
         <v>138</v>
       </c>
@@ -3454,8 +3676,11 @@
       <c r="C151" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="21">
+      <c r="D151" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="13" t="s">
         <v>138</v>
       </c>
@@ -3466,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="13" t="s">
         <v>138</v>
       </c>
@@ -3476,8 +3701,11 @@
       <c r="C153" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="21">
+      <c r="D153" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="13" t="s">
         <v>138</v>
       </c>
@@ -3487,8 +3715,11 @@
       <c r="C154" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="21">
+      <c r="D154" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="13" t="s">
         <v>138</v>
       </c>
@@ -3498,8 +3729,11 @@
       <c r="C155" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="21">
+      <c r="D155" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="13" t="s">
         <v>138</v>
       </c>
@@ -3509,8 +3743,11 @@
       <c r="C156" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="21">
+      <c r="D156" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="13" t="s">
         <v>138</v>
       </c>
@@ -3520,8 +3757,11 @@
       <c r="C157" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="21">
+      <c r="D157" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="13" t="s">
         <v>138</v>
       </c>
@@ -3531,8 +3771,11 @@
       <c r="C158" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="21">
+      <c r="D158" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="13" t="s">
         <v>138</v>
       </c>
@@ -3542,41 +3785,50 @@
       <c r="C159" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="21">
+      <c r="D159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="21">
+      <c r="C160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="21">
+      <c r="C161" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="21">
+      <c r="C162" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="13" t="s">
         <v>138</v>
       </c>
@@ -3587,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="13" t="s">
         <v>138</v>
       </c>
@@ -3598,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="13" t="s">
         <v>138</v>
       </c>
@@ -3609,18 +3861,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="21">
+      <c r="C166" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="13" t="s">
         <v>138</v>
       </c>
@@ -3631,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="13" t="s">
         <v>138</v>
       </c>
@@ -3642,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="13" t="s">
         <v>138</v>
       </c>
@@ -3653,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="13" t="s">
         <v>138</v>
       </c>
@@ -3664,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="13" t="s">
         <v>138</v>
       </c>
@@ -3675,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="13" t="s">
         <v>138</v>
       </c>
@@ -3686,7 +3941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="13" t="s">
         <v>138</v>
       </c>
@@ -3697,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="13" t="s">
         <v>138</v>
       </c>
@@ -3708,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="12"/>
       <c r="C176" s="5"/>
     </row>
@@ -4757,8 +5012,8 @@
       <c r="B275" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
+      <c r="C275" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
@@ -4768,8 +5023,8 @@
       <c r="B276" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>5</v>
+      <c r="C276" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
@@ -4779,8 +5034,8 @@
       <c r="B277" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>5</v>
+      <c r="C277" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
@@ -4790,8 +5045,8 @@
       <c r="B278" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>5</v>
+      <c r="C278" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
@@ -4812,8 +5067,8 @@
       <c r="B280" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>5</v>
+      <c r="C280" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
@@ -4823,8 +5078,8 @@
       <c r="B281" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>5</v>
+      <c r="C281" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
@@ -4845,8 +5100,8 @@
       <c r="B283" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>5</v>
+      <c r="C283" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
@@ -4856,8 +5111,8 @@
       <c r="B284" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>5</v>
+      <c r="C284" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
@@ -4867,8 +5122,8 @@
       <c r="B285" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>5</v>
+      <c r="C285" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
@@ -4878,8 +5133,8 @@
       <c r="B286" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>5</v>
+      <c r="C286" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
@@ -5727,8 +5982,8 @@
       <c r="B367" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C367" s="5" t="s">
-        <v>5</v>
+      <c r="C367" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
@@ -5804,8 +6059,8 @@
       <c r="B374" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C374" s="5" t="s">
-        <v>5</v>
+      <c r="C374" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
@@ -5859,8 +6114,8 @@
       <c r="B379" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C379" s="5" t="s">
-        <v>5</v>
+      <c r="C379" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
@@ -5870,8 +6125,8 @@
       <c r="B380" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C380" s="5" t="s">
-        <v>5</v>
+      <c r="C380" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
@@ -5892,8 +6147,8 @@
       <c r="B382" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>5</v>
+      <c r="C382" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
@@ -5903,8 +6158,8 @@
       <c r="B383" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C383" s="5" t="s">
-        <v>5</v>
+      <c r="C383" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
@@ -5914,8 +6169,8 @@
       <c r="B384" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C384" s="5" t="s">
-        <v>5</v>
+      <c r="C384" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
@@ -6172,8 +6427,8 @@
       <c r="B410" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>5</v>
+      <c r="C410" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6183,8 +6438,8 @@
       <c r="B411" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C411" s="5" t="s">
-        <v>5</v>
+      <c r="C411" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6205,8 +6460,8 @@
       <c r="B413" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C413" s="5" t="s">
-        <v>5</v>
+      <c r="C413" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6216,8 +6471,8 @@
       <c r="B414" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C414" s="5" t="s">
-        <v>5</v>
+      <c r="C414" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
@@ -6238,8 +6493,8 @@
       <c r="B416" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C416" s="5" t="s">
-        <v>5</v>
+      <c r="C416" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6249,8 +6504,8 @@
       <c r="B417" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C417" s="5" t="s">
-        <v>5</v>
+      <c r="C417" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6260,8 +6515,8 @@
       <c r="B418" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C418" s="5" t="s">
-        <v>5</v>
+      <c r="C418" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
@@ -6271,8 +6526,8 @@
       <c r="B419" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C419" s="5" t="s">
-        <v>5</v>
+      <c r="C419" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
@@ -6282,8 +6537,8 @@
       <c r="B420" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C420" s="5" t="s">
-        <v>5</v>
+      <c r="C420" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
@@ -6293,8 +6548,8 @@
       <c r="B421" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C421" s="5" t="s">
-        <v>5</v>
+      <c r="C421" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
@@ -6304,8 +6559,8 @@
       <c r="B422" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C422" s="5" t="s">
-        <v>5</v>
+      <c r="C422" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
@@ -6315,8 +6570,8 @@
       <c r="B423" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C423" s="5" t="s">
-        <v>5</v>
+      <c r="C423" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -6326,8 +6581,8 @@
       <c r="B424" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>5</v>
+      <c r="C424" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
@@ -6337,19 +6592,19 @@
       <c r="B425" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C425" s="5" t="s">
-        <v>5</v>
+      <c r="C425" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C426" s="5" t="s">
-        <v>5</v>
+      <c r="C426" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
@@ -6359,8 +6614,8 @@
       <c r="B427" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C427" s="5" t="s">
-        <v>5</v>
+      <c r="C427" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
@@ -6370,8 +6625,8 @@
       <c r="B428" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C428" s="5" t="s">
-        <v>5</v>
+      <c r="C428" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
@@ -6392,8 +6647,8 @@
       <c r="B430" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>5</v>
+      <c r="C430" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
@@ -6403,8 +6658,8 @@
       <c r="B431" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C431" s="5" t="s">
-        <v>5</v>
+      <c r="C431" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
@@ -6436,8 +6691,8 @@
       <c r="B434" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C434" s="5" t="s">
-        <v>5</v>
+      <c r="C434" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
@@ -6447,8 +6702,8 @@
       <c r="B435" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C435" s="5" t="s">
-        <v>5</v>
+      <c r="C435" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
@@ -6458,8 +6713,8 @@
       <c r="B436" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C436" s="5" t="s">
-        <v>5</v>
+      <c r="C436" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
@@ -6480,8 +6735,8 @@
       <c r="B438" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>5</v>
+      <c r="C438" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">

--- a/450/FINAL450.xlsx
+++ b/450/FINAL450.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3967,7 +3967,7 @@
       <c r="B176" s="12"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -3977,8 +3977,11 @@
       <c r="C177" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+      <c r="D177" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="6" t="s">
         <v>175</v>
       </c>
@@ -3988,8 +3991,11 @@
       <c r="C178" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+      <c r="D178" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="6" t="s">
         <v>175</v>
       </c>
@@ -3999,8 +4005,11 @@
       <c r="C179" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+      <c r="D179" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="6" t="s">
         <v>175</v>
       </c>
@@ -4010,8 +4019,11 @@
       <c r="C180" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+      <c r="D180" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="6" t="s">
         <v>175</v>
       </c>
@@ -4021,8 +4033,11 @@
       <c r="C181" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+      <c r="D181" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="6" t="s">
         <v>175</v>
       </c>
@@ -4033,7 +4048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="6" t="s">
         <v>175</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="6" t="s">
         <v>175</v>
       </c>
@@ -4055,7 +4070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="6" t="s">
         <v>175</v>
       </c>
@@ -4065,8 +4080,11 @@
       <c r="C185" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+      <c r="D185" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="6" t="s">
         <v>175</v>
       </c>
@@ -4076,8 +4094,11 @@
       <c r="C186" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+      <c r="D186" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="6" t="s">
         <v>175</v>
       </c>
@@ -4087,8 +4108,11 @@
       <c r="C187" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+      <c r="D187" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="6" t="s">
         <v>175</v>
       </c>
@@ -4098,8 +4122,11 @@
       <c r="C188" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+      <c r="D188" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="6" t="s">
         <v>175</v>
       </c>
@@ -4109,8 +4136,11 @@
       <c r="C189" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+      <c r="D189" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="6" t="s">
         <v>175</v>
       </c>
@@ -4120,8 +4150,11 @@
       <c r="C190" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+      <c r="D190" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="6" t="s">
         <v>175</v>
       </c>
@@ -4131,8 +4164,11 @@
       <c r="C191" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+      <c r="D191" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="6" t="s">
         <v>175</v>
       </c>
@@ -4142,8 +4178,11 @@
       <c r="C192" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+      <c r="D192" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="6" t="s">
         <v>175</v>
       </c>
@@ -4154,29 +4193,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+      <c r="C194" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+      <c r="C195" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="6" t="s">
         <v>175</v>
       </c>
@@ -4187,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="6" t="s">
         <v>175</v>
       </c>
@@ -4198,18 +4243,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+      <c r="C198" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="6" t="s">
         <v>175</v>
       </c>
@@ -4220,18 +4268,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
+      <c r="C200" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="6" t="s">
         <v>175</v>
       </c>
@@ -4242,7 +4293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="6" t="s">
         <v>175</v>
       </c>
@@ -4253,18 +4304,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="21">
+      <c r="C203" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="6" t="s">
         <v>175</v>
       </c>
@@ -4275,18 +4329,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="6" t="s">
         <v>175</v>
       </c>
@@ -4297,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="6" t="s">
         <v>175</v>
       </c>
@@ -4308,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="6" t="s">
         <v>175</v>
       </c>
@@ -4319,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="6" t="s">
         <v>175</v>
       </c>
@@ -4330,18 +4384,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+      <c r="C210" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="6" t="s">
         <v>175</v>
       </c>
@@ -4352,17 +4409,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="13"/>
       <c r="B212" s="12"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="13"/>
       <c r="B213" s="12"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -4372,8 +4429,11 @@
       <c r="C214" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
+      <c r="D214" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
@@ -4383,8 +4443,11 @@
       <c r="C215" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
+      <c r="D215" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
@@ -4394,8 +4457,11 @@
       <c r="C216" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
+      <c r="D216" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -4406,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
@@ -4416,8 +4482,11 @@
       <c r="C218" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
+      <c r="D218" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
@@ -4427,8 +4496,11 @@
       <c r="C219" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
+      <c r="D219" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
@@ -4438,8 +4510,11 @@
       <c r="C220" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
+      <c r="D220" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -4450,7 +4525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -4460,8 +4535,11 @@
       <c r="C222" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
+      <c r="D222" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -4471,8 +4549,11 @@
       <c r="C223" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
+      <c r="D223" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
@@ -4482,8 +4563,11 @@
       <c r="C224" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
+      <c r="D224" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -4494,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -4505,7 +4589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
@@ -4516,7 +4600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
@@ -4527,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
@@ -4538,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
@@ -4549,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="6" t="s">
         <v>211</v>
       </c>
@@ -4560,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="6" t="s">
         <v>211</v>
       </c>
@@ -4571,7 +4655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
@@ -4582,7 +4666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
@@ -4592,8 +4676,11 @@
       <c r="C234" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
+      <c r="D234" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
@@ -4604,15 +4691,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="12"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="12"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="6" t="s">
         <v>234</v>
       </c>
@@ -4623,7 +4710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="6" t="s">
         <v>234</v>
       </c>
@@ -4634,7 +4721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="6" t="s">
         <v>234</v>
       </c>
@@ -5835,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" spans="1:4" ht="21">
       <c r="A353" s="13" t="s">
         <v>328</v>
       </c>
@@ -5846,15 +5933,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" spans="1:4" ht="21">
       <c r="B354" s="12"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" spans="1:4" ht="21">
       <c r="B355" s="12"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" spans="1:4" ht="21">
       <c r="A356" s="13" t="s">
         <v>347</v>
       </c>
@@ -5864,8 +5951,11 @@
       <c r="C356" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21">
+      <c r="D356" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="21">
       <c r="A357" s="13" t="s">
         <v>347</v>
       </c>
@@ -5875,8 +5965,11 @@
       <c r="C357" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
+      <c r="D357" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21">
       <c r="A358" s="13" t="s">
         <v>347</v>
       </c>
@@ -5886,8 +5979,11 @@
       <c r="C358" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
+      <c r="D358" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="21">
       <c r="A359" s="13" t="s">
         <v>347</v>
       </c>
@@ -5897,8 +5993,11 @@
       <c r="C359" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
+      <c r="D359" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="21">
       <c r="A360" s="13" t="s">
         <v>347</v>
       </c>
@@ -5908,8 +6007,11 @@
       <c r="C360" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
+      <c r="D360" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21">
       <c r="A361" s="13" t="s">
         <v>347</v>
       </c>
@@ -5919,8 +6021,11 @@
       <c r="C361" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
+      <c r="D361" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="21">
       <c r="A362" s="13" t="s">
         <v>347</v>
       </c>
@@ -5930,8 +6035,11 @@
       <c r="C362" s="11" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
+      <c r="D362" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="21">
       <c r="A363" s="13" t="s">
         <v>347</v>
       </c>
@@ -5941,8 +6049,11 @@
       <c r="C363" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
+      <c r="D363" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="21">
       <c r="A364" s="13" t="s">
         <v>347</v>
       </c>
@@ -5952,19 +6063,25 @@
       <c r="C364" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
+      <c r="D364" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="21">
       <c r="A365" s="13" t="s">
         <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C365" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
+      <c r="C365" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="21">
       <c r="A366" s="13" t="s">
         <v>347</v>
       </c>
@@ -5974,8 +6091,11 @@
       <c r="C366" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
+      <c r="D366" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="21">
       <c r="A367" s="13" t="s">
         <v>347</v>
       </c>
@@ -5986,7 +6106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" spans="1:4" ht="21">
       <c r="A368" s="13" t="s">
         <v>347</v>
       </c>
@@ -5996,8 +6116,11 @@
       <c r="C368" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
+      <c r="D368" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="13" t="s">
         <v>347</v>
       </c>
@@ -6007,8 +6130,11 @@
       <c r="C369" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
+      <c r="D369" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="13" t="s">
         <v>347</v>
       </c>
@@ -6018,8 +6144,11 @@
       <c r="C370" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="21">
+      <c r="D370" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="13" t="s">
         <v>347</v>
       </c>
@@ -6029,8 +6158,11 @@
       <c r="C371" s="11" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
+      <c r="D371" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="13" t="s">
         <v>347</v>
       </c>
@@ -6041,7 +6173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="13" t="s">
         <v>347</v>
       </c>
@@ -6051,8 +6183,11 @@
       <c r="C373" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
+      <c r="D373" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="13" t="s">
         <v>347</v>
       </c>
@@ -6063,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="13" t="s">
         <v>347</v>
       </c>
@@ -6074,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="13" t="s">
         <v>347</v>
       </c>
@@ -6085,7 +6220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="13" t="s">
         <v>347</v>
       </c>
@@ -6096,7 +6231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="13" t="s">
         <v>347</v>
       </c>
@@ -6107,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="13" t="s">
         <v>347</v>
       </c>
@@ -6118,7 +6253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="13" t="s">
         <v>347</v>
       </c>
@@ -6129,7 +6264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="13" t="s">
         <v>347</v>
       </c>
@@ -6140,7 +6275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="13" t="s">
         <v>347</v>
       </c>
@@ -6151,7 +6286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="13" t="s">
         <v>347</v>
       </c>
@@ -6162,7 +6297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="13" t="s">
         <v>347</v>
       </c>
